--- a/CORTE 3/MMONTECARLO.xlsx
+++ b/CORTE 3/MMONTECARLO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Computador\Documentos\Universidad\VIII Semestre\Métodos Númericos\Talleres\CORTE 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe's\Documents\GitHub\MetodosNumericos\CORTE 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -200,511 +200,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>0.41313152020264843</c:v>
+                  <c:v>0.71117643844981071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0841552452416492</c:v>
+                  <c:v>1.4787863005019977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45170923827872572</c:v>
+                  <c:v>0.63371365489569942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81546891807299693</c:v>
+                  <c:v>1.3236453102340957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1189114243862703</c:v>
+                  <c:v>1.4272608263952109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64312580814140929</c:v>
+                  <c:v>1.225047061818628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46053405788936347</c:v>
+                  <c:v>1.3323081182806518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19748639895243469</c:v>
+                  <c:v>1.0878895105213362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47170017269300707</c:v>
+                  <c:v>0.50853261475642864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88458046646810284</c:v>
+                  <c:v>0.59718179815383521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4348070961743034</c:v>
+                  <c:v>0.1940497051836258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52407431200805632</c:v>
+                  <c:v>0.67830788701636036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8024766321133809E-2</c:v>
+                  <c:v>0.84667667368802246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44117067018824258</c:v>
+                  <c:v>0.1657682639145926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3935805211876724</c:v>
+                  <c:v>9.1582319654012645E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1879735531767073</c:v>
+                  <c:v>0.9960846756496764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53350588377598429</c:v>
+                  <c:v>1.3190871625375133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1468211234772399</c:v>
+                  <c:v>1.3519211047502506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.036884251937777E-2</c:v>
+                  <c:v>1.2419165348141439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82288364656613133</c:v>
+                  <c:v>0.87932317783306835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67868478627752449</c:v>
+                  <c:v>0.55515016287766616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23518366164690829</c:v>
+                  <c:v>1.1322797968113036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3155868587408408</c:v>
+                  <c:v>1.4410721550473538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95521071600085072</c:v>
+                  <c:v>0.3101232762781449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3866116343907034</c:v>
+                  <c:v>1.1933071978871164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4427694364731551</c:v>
+                  <c:v>0.82744846136728822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70234616748899836</c:v>
+                  <c:v>0.24013111727458192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9371074807716842E-2</c:v>
+                  <c:v>0.31550787450984608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4729477393714046</c:v>
+                  <c:v>1.4051758912433305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14775167949764101</c:v>
+                  <c:v>0.51455036743106364</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52131166235104742</c:v>
+                  <c:v>1.1234420635858136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82734701127173593</c:v>
+                  <c:v>0.91287457108845071</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12589585804631509</c:v>
+                  <c:v>0.83154384917345625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74007342230374351</c:v>
+                  <c:v>0.51666199198344476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.84451022853950897</c:v>
+                  <c:v>0.57576977306974375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17842695361885785</c:v>
+                  <c:v>5.7138708597642418E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33084675696346905</c:v>
+                  <c:v>0.14527496494690223</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1938182227798704E-3</c:v>
+                  <c:v>1.1910160123912559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5513086972855652</c:v>
+                  <c:v>0.48509832919253681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1442194087437043</c:v>
+                  <c:v>0.14482436742496951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35034218445876503</c:v>
+                  <c:v>1.4176713842334405</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66300066858903939</c:v>
+                  <c:v>0.24168377684219722</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99580246184895915</c:v>
+                  <c:v>0.7214132039499116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12098714174925601</c:v>
+                  <c:v>0.58695166446948588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4691837406197983</c:v>
+                  <c:v>0.20417161307152965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28380617986598966</c:v>
+                  <c:v>0.18884502996530872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.33034512416872119</c:v>
+                  <c:v>0.87256934590779101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2489021993824987</c:v>
+                  <c:v>0.85054527568000293</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.70408970135368354</c:v>
+                  <c:v>0.36004941797442941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.076821164596397</c:v>
+                  <c:v>0.61193149715160122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0422798265995177</c:v>
+                  <c:v>0.48547814970935382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19542540617824816</c:v>
+                  <c:v>0.86679015204276877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27259100660928248</c:v>
+                  <c:v>0.1859897618116832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.449384833374846</c:v>
+                  <c:v>0.25736457201472435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17206878419125216</c:v>
+                  <c:v>1.3256648362967711</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22371391124160867</c:v>
+                  <c:v>0.71661934332309529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3587267172783708</c:v>
+                  <c:v>1.3526368408685003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52601268098955245</c:v>
+                  <c:v>0.70935004315446382</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0725426985964919</c:v>
+                  <c:v>1.3459432078971398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.39913821874137118</c:v>
+                  <c:v>0.485865993603736</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3950975614724073</c:v>
+                  <c:v>1.2995562078557401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.33211569759929066</c:v>
+                  <c:v>1.2818557182801662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98729801017117991</c:v>
+                  <c:v>0.4616249226539364</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.62459708887737908</c:v>
+                  <c:v>0.64945448014679663</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3410288492317266</c:v>
+                  <c:v>1.1205666969056309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.90462232233099615</c:v>
+                  <c:v>1.0406098270184982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.27456307869537694</c:v>
+                  <c:v>1.4609707108956642</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.484500552268019</c:v>
+                  <c:v>0.75406612887627866</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1563156009135338</c:v>
+                  <c:v>1.0623053341094446</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.3084907370660774E-4</c:v>
+                  <c:v>0.63078567379252881</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.73847313893868771</c:v>
+                  <c:v>1.4724171143668046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43795383434528051</c:v>
+                  <c:v>0.73733806676378921</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.17997157741989467</c:v>
+                  <c:v>5.5877294922940857E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8593570056477084E-2</c:v>
+                  <c:v>1.2799331586756657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4394462458623782</c:v>
+                  <c:v>1.3721548967974202</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8851098653009619E-2</c:v>
+                  <c:v>1.0339405591052493</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.35451910847868362</c:v>
+                  <c:v>1.0280589562666398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.26995244897073795</c:v>
+                  <c:v>0.55135484363311349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.74666631000166928</c:v>
+                  <c:v>0.75051400357697506</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1331002370326204</c:v>
+                  <c:v>0.90008037524005735</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8574709034244582</c:v>
+                  <c:v>1.2980688453519966</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25722481647248513</c:v>
+                  <c:v>0.31638556805497642</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.48033364668916406</c:v>
+                  <c:v>1.1447891654177809</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13810732323273217</c:v>
+                  <c:v>0.94295169039689575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.52928729071294134</c:v>
+                  <c:v>0.1581589291029103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90309092321195561</c:v>
+                  <c:v>0.91693422079655174</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1865316947413067</c:v>
+                  <c:v>1.137340151780784</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.78111386067956912</c:v>
+                  <c:v>0.28713244116725206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.81353916847545515</c:v>
+                  <c:v>1.0673246226719935</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2772376896892368E-2</c:v>
+                  <c:v>1.0673755269240415</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3972650345258397</c:v>
+                  <c:v>0.44379383940490919</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77603085609025491</c:v>
+                  <c:v>0.52721073283444342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13570242017229711</c:v>
+                  <c:v>0.98975464325819118</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4196393984980509</c:v>
+                  <c:v>0.88859046034008737</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.93517844300827369</c:v>
+                  <c:v>1.377581204393606</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.17557082274155666</c:v>
+                  <c:v>1.2367943719119971</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.97171033368319704</c:v>
+                  <c:v>0.84850795732329898</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98043236620410923</c:v>
+                  <c:v>0.74820952452261102</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54616606818056268</c:v>
+                  <c:v>1.2924963999682086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4644114791836676</c:v>
+                  <c:v>1.2145877239018847</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98502724460536628</c:v>
+                  <c:v>1.3255467122177809</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.524275202177878E-2</c:v>
+                  <c:v>0.15234644597503438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.7916034289332166E-2</c:v>
+                  <c:v>0.85801579865197175</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.29904998995533277</c:v>
+                  <c:v>1.1179754272223021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16313512974780292</c:v>
+                  <c:v>1.0928620653381727</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4492902097669635</c:v>
+                  <c:v>0.9326599933051346</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.39304794533439635</c:v>
+                  <c:v>1.1095478275547692</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.93020631100055495</c:v>
+                  <c:v>0.85076258557457507</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.24068365433245681</c:v>
+                  <c:v>0.36460433136271297</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.25376614782086998</c:v>
+                  <c:v>0.36594002986318419</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.4180209147415548</c:v>
+                  <c:v>0.50081439677849715</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.4866680222953619</c:v>
+                  <c:v>0.9284384371166855</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4344094087323667</c:v>
+                  <c:v>0.67722914060749706</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.23631395051998683</c:v>
+                  <c:v>0.34634610849747427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3106095391964274</c:v>
+                  <c:v>1.2634277990573184</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1051998614615852</c:v>
+                  <c:v>0.79187606170184921</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4935102892470304</c:v>
+                  <c:v>0.41645497859048847</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.12277543910050676</c:v>
+                  <c:v>1.0551193586621554</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.50382787986312594</c:v>
+                  <c:v>1.4609485896323164</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.2627548650984075</c:v>
+                  <c:v>1.1227316397185718</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.96927058116083797</c:v>
+                  <c:v>0.71117317747052433</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.209494611471114</c:v>
+                  <c:v>1.3920215542117031</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6640331394395256E-2</c:v>
+                  <c:v>0.65141764688756032</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.418557955122778</c:v>
+                  <c:v>0.65762513599871286</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.61342840217885364</c:v>
+                  <c:v>1.4902212741302132</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.2344794778934249E-2</c:v>
+                  <c:v>0.86313976356165423</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.6480381430293352E-3</c:v>
+                  <c:v>0.64733217884456595</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8857210650219054</c:v>
+                  <c:v>0.46114712866970398</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.8678342867195588E-2</c:v>
+                  <c:v>1.0093773769068588</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.3780854531985263</c:v>
+                  <c:v>1.4456267912094019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.50370980379283625</c:v>
+                  <c:v>7.3983135988184845E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.4710958136914318E-2</c:v>
+                  <c:v>0.25312582229722291</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.36709283256219877</c:v>
+                  <c:v>0.83883138997611695</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.2439887397413891</c:v>
+                  <c:v>1.3945277255450286</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2264272144042796E-2</c:v>
+                  <c:v>3.4386565284032E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2606955819162227</c:v>
+                  <c:v>0.15819517649363074</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2640020563226726E-2</c:v>
+                  <c:v>0.35031828919152896</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4801194060037235</c:v>
+                  <c:v>1.0586967486436589</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.1918690245960883</c:v>
+                  <c:v>3.1488738926297666E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.2110302209746928</c:v>
+                  <c:v>6.1414193619995894E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.2572075383885011E-2</c:v>
+                  <c:v>0.95090709636504145</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.41902652388837214</c:v>
+                  <c:v>1.4783846265439453</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.32150585564715739</c:v>
+                  <c:v>0.3421211747527107</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.91200694719191555</c:v>
+                  <c:v>0.57151200497872168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15119946633427755</c:v>
+                  <c:v>2.6472486898583281E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.50443161098750089</c:v>
+                  <c:v>0.22931363819413708</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.33180172696372379</c:v>
+                  <c:v>1.0127557639975548</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.74901860925446928</c:v>
+                  <c:v>0.10309504086613558</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.2811808221211565</c:v>
+                  <c:v>1.3792331406962406</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.2457002040135789</c:v>
+                  <c:v>0.38818077248711536</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1792598309618429</c:v>
+                  <c:v>1.0939473730562272</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.9341015498950656E-2</c:v>
+                  <c:v>1.2789867768996133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.92548907530791669</c:v>
+                  <c:v>0.8266422893005847</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.7525855666147006E-2</c:v>
+                  <c:v>3.2246440478832461E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.0516323501182159</c:v>
+                  <c:v>0.86861713360362347</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.61820835380312755</c:v>
+                  <c:v>1.3895913302910909</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.2274104736285637</c:v>
+                  <c:v>0.35164438896065592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.47629454929025161</c:v>
+                  <c:v>4.9430977893774708E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.24934937650004418</c:v>
+                  <c:v>1.086657242155189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9201332609539628E-2</c:v>
+                  <c:v>1.3361024888311299</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.98107456238122204</c:v>
+                  <c:v>1.1032781728367733</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.460187022460518</c:v>
+                  <c:v>1.2662683836386674</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.99380541465237071</c:v>
+                  <c:v>4.540836911187035E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.89007448343082096</c:v>
+                  <c:v>1.0934982951374237</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.43106172004842824</c:v>
+                  <c:v>1.3175141699105413</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.41718072611541784</c:v>
+                  <c:v>1.0884154359925451</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0649265403173169</c:v>
+                  <c:v>1.1621111472228636</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.21942418457095136</c:v>
+                  <c:v>1.3553582768694148</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.93740719743939782</c:v>
+                  <c:v>0.11371778980557962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,511 +716,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>9.4498565525198641E-2</c:v>
+                  <c:v>1.3449334704376859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8783904882185849E-2</c:v>
+                  <c:v>0.62846457168288239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19046047985222953</c:v>
+                  <c:v>0.78432093006928427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.31327086433053</c:v>
+                  <c:v>1.037055195245721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46907074118319358</c:v>
+                  <c:v>1.2918149880277634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.007411374379827</c:v>
+                  <c:v>9.609580266034673E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37481278530928847</c:v>
+                  <c:v>1.4350948597178879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34651375331676409</c:v>
+                  <c:v>1.4467935171479991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9037592954160294</c:v>
+                  <c:v>0.74503366114893455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38492379442496377</c:v>
+                  <c:v>1.0075572855604833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72419439423712562</c:v>
+                  <c:v>1.2493494776764984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36376254454056306</c:v>
+                  <c:v>0.84446029649182208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46154336910423949</c:v>
+                  <c:v>0.52825370591469345</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3066005829270186</c:v>
+                  <c:v>0.9341004409580268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7504408274965992E-2</c:v>
+                  <c:v>0.9932669572027224</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13180230731423898</c:v>
+                  <c:v>0.98494236294716719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.296555624670634</c:v>
+                  <c:v>1.3990790479871129</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3502070131957125</c:v>
+                  <c:v>1.4663285713122058</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77116088509542591</c:v>
+                  <c:v>1.4287061367266665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30782217818358404</c:v>
+                  <c:v>0.43822251016977387</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.038824119862223</c:v>
+                  <c:v>1.1591828441372427</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4855442505787453</c:v>
+                  <c:v>3.0728430288837094E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1997974709501293</c:v>
+                  <c:v>1.4996678908329031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.50434648649215374</c:v>
+                  <c:v>0.36616985326698653</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.80475602904320598</c:v>
+                  <c:v>6.5321978980364848E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.59236782029441826</c:v>
+                  <c:v>0.6399099154097494</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0705241838567168</c:v>
+                  <c:v>0.47825753231747653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1934714531897748</c:v>
+                  <c:v>0.93064278843578907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28099858277693063</c:v>
+                  <c:v>9.3623992573203196E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44729710747859563</c:v>
+                  <c:v>0.36052868015657308</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1983948479254485</c:v>
+                  <c:v>0.96705765094097607</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13950650753005345</c:v>
+                  <c:v>1.3324428425426598</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97426576468184656</c:v>
+                  <c:v>0.69563623443023792</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4812298188975377</c:v>
+                  <c:v>0.41758414017590628</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.75569716491154504</c:v>
+                  <c:v>9.3883442106605264E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.80882992671046683</c:v>
+                  <c:v>0.42367595100225558</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3864109297607024</c:v>
+                  <c:v>0.55396850464157366</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.23667421406088</c:v>
+                  <c:v>1.3055135479419866</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2469722765691189</c:v>
+                  <c:v>0.49090126353939068</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.59569109807644449</c:v>
+                  <c:v>0.82410603257114612</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.2399469257810527E-2</c:v>
+                  <c:v>5.4939613505494478E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.59622101896602597</c:v>
+                  <c:v>0.76618419604250576</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43122820527989264</c:v>
+                  <c:v>0.61865324705438818</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.60010847860449523</c:v>
+                  <c:v>1.3237687024537168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.8665825628156003E-2</c:v>
+                  <c:v>0.29363895730252304</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11358481976461277</c:v>
+                  <c:v>8.3454156809513735E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.32776285077269934</c:v>
+                  <c:v>0.42508449985587377</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3517169365746793</c:v>
+                  <c:v>7.9807987756513266E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.47335858491974858</c:v>
+                  <c:v>0.56937782701816508</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2433540793512878</c:v>
+                  <c:v>1.0904246373777857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2714467243874865</c:v>
+                  <c:v>0.345889712334362</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3785247626266919</c:v>
+                  <c:v>0.18976093423883944</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.20621021669552553</c:v>
+                  <c:v>0.27800981298701749</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2446998530750544</c:v>
+                  <c:v>0.835720851541087</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4852222652064813</c:v>
+                  <c:v>1.1932717694446937</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.6613646790986747E-2</c:v>
+                  <c:v>1.2655381110733541</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.58756531948316315</c:v>
+                  <c:v>2.1707332327638162E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.374754760462106</c:v>
+                  <c:v>0.99052367216140236</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.391791105895295</c:v>
+                  <c:v>0.49771596977258498</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.50978028274337606</c:v>
+                  <c:v>0.78464806333299619</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.91375958093420595</c:v>
+                  <c:v>2.8191585549317666E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.59047039946953384</c:v>
+                  <c:v>0.81851301153866396</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0043416297530103</c:v>
+                  <c:v>0.55255555930254352</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.0651829841715363E-2</c:v>
+                  <c:v>5.3298514790335705E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.3014155504936802E-2</c:v>
+                  <c:v>0.7196588114759821</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.82491535832809104</c:v>
+                  <c:v>0.4138140862633195</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2993483231470768</c:v>
+                  <c:v>0.59850049771294667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.54675733957078698</c:v>
+                  <c:v>0.84947135428224685</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.71189785310884779</c:v>
+                  <c:v>0.17554972580576067</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.29309795090274399</c:v>
+                  <c:v>1.1566150302709466</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.91450924239376119</c:v>
+                  <c:v>2.3537529023515247E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3388355533399463</c:v>
+                  <c:v>1.3293583436981276</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.54228390045586672</c:v>
+                  <c:v>1.0726706658272533</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.879910305042791</c:v>
+                  <c:v>0.26860159027550601</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.42240289981134582</c:v>
+                  <c:v>0.81410934940138102</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.63773855356140341</c:v>
+                  <c:v>1.4483879390468011</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.55865387774357211</c:v>
+                  <c:v>0.57965427069288744</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.57874714226103907</c:v>
+                  <c:v>0.36148605185507743</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.57623369752623155</c:v>
+                  <c:v>0.45474776511624948</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.6945872860139088E-2</c:v>
+                  <c:v>1.2396147002352809</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.21147646077327936</c:v>
+                  <c:v>0.94372007077291076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.141226077149049</c:v>
+                  <c:v>0.83390198912995572</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.4352745052419935</c:v>
+                  <c:v>1.9511330210150946E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.2734017692953183</c:v>
+                  <c:v>1.2730038944952708</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.82592151048877716</c:v>
+                  <c:v>0.7702502291585831</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3477411698217119</c:v>
+                  <c:v>1.0627226275537056</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.3393113646486694</c:v>
+                  <c:v>0.36888141642743472</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.724699335024513</c:v>
+                  <c:v>0.49762230876167912</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2500050036804176</c:v>
+                  <c:v>0.90567990262001907</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.72885957527184109</c:v>
+                  <c:v>0.64806722479528134</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.319610905400638</c:v>
+                  <c:v>2.7567088199644096E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.59284162399001294</c:v>
+                  <c:v>0.17775501464169313</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.3369620487239238E-2</c:v>
+                  <c:v>0.11514294217298165</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0164911693241276</c:v>
+                  <c:v>0.17389320140255782</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.2489175264275632</c:v>
+                  <c:v>1.1867719629783675</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.21967524756702167</c:v>
+                  <c:v>0.300652409532356</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.10649619855849751</c:v>
+                  <c:v>0.29083196553619961</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.1554208574983296</c:v>
+                  <c:v>0.2830025549018011</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.83595723362649621</c:v>
+                  <c:v>1.2585376015668783</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.27867794279538832</c:v>
+                  <c:v>1.2113036281714047</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.38451014442991072</c:v>
+                  <c:v>1.4356009706897093</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.56958075229543081</c:v>
+                  <c:v>0.42747737882394388</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.27159976498976796</c:v>
+                  <c:v>0.71691365955580177</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.55602235560394964</c:v>
+                  <c:v>0.63947458737563312</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16298995673791139</c:v>
+                  <c:v>0.1019072353347954</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.38513489596603917</c:v>
+                  <c:v>0.58178107413419311</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.83081013021799055</c:v>
+                  <c:v>1.0631177978894604</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.69816749964332114</c:v>
+                  <c:v>0.67131479731092969</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.58068186088661577</c:v>
+                  <c:v>0.96516715136785491</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.2339488370185561</c:v>
+                  <c:v>1.0266493993843131</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.0100602905161282</c:v>
+                  <c:v>1.2869637300530319</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.1601995097971569</c:v>
+                  <c:v>0.58827910587981491</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.23987066085607656</c:v>
+                  <c:v>0.87709567867859128</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.15967074543567072</c:v>
+                  <c:v>0.37353448183401378</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.99463761563343245</c:v>
+                  <c:v>1.2444064926791309</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1137627578519882</c:v>
+                  <c:v>1.449668941971137</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.0756436536308598</c:v>
+                  <c:v>1.1163648176298433</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.89026459173020611</c:v>
+                  <c:v>0.68992913284087742</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.2696652367629986</c:v>
+                  <c:v>8.4090097737151037E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.2236490122868073E-2</c:v>
+                  <c:v>0.92756603443346808</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.1534077598930881</c:v>
+                  <c:v>0.757746776453184</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.13563611203044285</c:v>
+                  <c:v>0.12533286571588498</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.74576628425633151</c:v>
+                  <c:v>1.18075062966428</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.4111913321734419E-2</c:v>
+                  <c:v>0.21561447975909181</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.3104661112975671</c:v>
+                  <c:v>0.50533984183722935</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.1568813405636118</c:v>
+                  <c:v>1.2113797081297162</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.98066185913224957</c:v>
+                  <c:v>1.1826269634718403</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.91819186050649981</c:v>
+                  <c:v>0.64589684714706774</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.4227154987221968</c:v>
+                  <c:v>0.1206795519572037</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.10448785249732123</c:v>
+                  <c:v>1.4896265705656242</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.45272124829018329</c:v>
+                  <c:v>1.3576814154710894</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.45168883696658324</c:v>
+                  <c:v>0.35744624938687236</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.3958472160693172</c:v>
+                  <c:v>0.50882585785779022</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.22697541744828875</c:v>
+                  <c:v>0.92399244675998093</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.58489464992615336</c:v>
+                  <c:v>4.7357413787317837E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.39836533425941767</c:v>
+                  <c:v>0.96762024759962662</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.62827130765482297</c:v>
+                  <c:v>1.288259506406769</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.37231199386352765</c:v>
+                  <c:v>1.2785244909147231</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.22829496591462678</c:v>
+                  <c:v>0.89612432188586699</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.65585490272513625</c:v>
+                  <c:v>7.5655247870529629E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.3227564890766681</c:v>
+                  <c:v>1.2329114920817448</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.0472174115986899</c:v>
+                  <c:v>0.51001113043540547</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.2833039973497835</c:v>
+                  <c:v>0.43955052868237626</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.17560937113548891</c:v>
+                  <c:v>0.69873885136048908</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.10453090921055502</c:v>
+                  <c:v>1.1501350852913896</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.85436597655810531</c:v>
+                  <c:v>0.72696540151211875</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.88921200663041211</c:v>
+                  <c:v>0.82804776619158182</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.98276749916285655</c:v>
+                  <c:v>1.4313641554224514</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.10151491975086541</c:v>
+                  <c:v>1.2399867175836423</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.4347487666162471</c:v>
+                  <c:v>0.46138972569813352</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1573864724527538</c:v>
+                  <c:v>1.1430001649000348</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1690188534058334</c:v>
+                  <c:v>0.91056124147982853</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.35402866738439681</c:v>
+                  <c:v>1.4198080721791304</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.62239179023379387</c:v>
+                  <c:v>0.18154804474745495</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.3928331924986688</c:v>
+                  <c:v>0.12040026305480833</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.43612692344211335</c:v>
+                  <c:v>0.63533907539258794</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.8252238426266737</c:v>
+                  <c:v>0.6053858899373008</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.28542634184063281</c:v>
+                  <c:v>0.17395145607974444</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.73368524000821411</c:v>
+                  <c:v>0.48346929637473995</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.35979604367368079</c:v>
+                  <c:v>0.70063990015228295</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.46351504821734496</c:v>
+                  <c:v>1.0971264695673772</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.17865969657702996</c:v>
+                  <c:v>1.3033732803629978</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.05012924399929</c:v>
+                  <c:v>0.37242452883350197</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>9.0134155938926763E-2</c:v>
+                  <c:v>0.14461621722701451</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.83447854700045954</c:v>
+                  <c:v>0.18365458909447918</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.25499578614214757</c:v>
+                  <c:v>0.44913651703753898</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.9445747385135862</c:v>
+                  <c:v>1.013408449511302</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.97147758750454838</c:v>
+                  <c:v>3.2412464384221684E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.39867489957161761</c:v>
+                  <c:v>0.49352265393648065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,511 +1270,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>0.41313152020264843</c:v>
+                  <c:v>0.71117643844981071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0841552452416492</c:v>
+                  <c:v>1.4787863005019977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45170923827872572</c:v>
+                  <c:v>0.63371365489569942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81546891807299693</c:v>
+                  <c:v>1.3236453102340957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1189114243862703</c:v>
+                  <c:v>1.4272608263952109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64312580814140929</c:v>
+                  <c:v>1.225047061818628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46053405788936347</c:v>
+                  <c:v>1.3323081182806518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19748639895243469</c:v>
+                  <c:v>1.0878895105213362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47170017269300707</c:v>
+                  <c:v>0.50853261475642864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88458046646810284</c:v>
+                  <c:v>0.59718179815383521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4348070961743034</c:v>
+                  <c:v>0.1940497051836258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52407431200805632</c:v>
+                  <c:v>0.67830788701636036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8024766321133809E-2</c:v>
+                  <c:v>0.84667667368802246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44117067018824258</c:v>
+                  <c:v>0.1657682639145926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3935805211876724</c:v>
+                  <c:v>9.1582319654012645E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1879735531767073</c:v>
+                  <c:v>0.9960846756496764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53350588377598429</c:v>
+                  <c:v>1.3190871625375133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1468211234772399</c:v>
+                  <c:v>1.3519211047502506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.036884251937777E-2</c:v>
+                  <c:v>1.2419165348141439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82288364656613133</c:v>
+                  <c:v>0.87932317783306835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67868478627752449</c:v>
+                  <c:v>0.55515016287766616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23518366164690829</c:v>
+                  <c:v>1.1322797968113036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3155868587408408</c:v>
+                  <c:v>1.4410721550473538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95521071600085072</c:v>
+                  <c:v>0.3101232762781449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3866116343907034</c:v>
+                  <c:v>1.1933071978871164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4427694364731551</c:v>
+                  <c:v>0.82744846136728822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70234616748899836</c:v>
+                  <c:v>0.24013111727458192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9371074807716842E-2</c:v>
+                  <c:v>0.31550787450984608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4729477393714046</c:v>
+                  <c:v>1.4051758912433305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14775167949764101</c:v>
+                  <c:v>0.51455036743106364</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52131166235104742</c:v>
+                  <c:v>1.1234420635858136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82734701127173593</c:v>
+                  <c:v>0.91287457108845071</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12589585804631509</c:v>
+                  <c:v>0.83154384917345625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74007342230374351</c:v>
+                  <c:v>0.51666199198344476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.84451022853950897</c:v>
+                  <c:v>0.57576977306974375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17842695361885785</c:v>
+                  <c:v>5.7138708597642418E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33084675696346905</c:v>
+                  <c:v>0.14527496494690223</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1938182227798704E-3</c:v>
+                  <c:v>1.1910160123912559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5513086972855652</c:v>
+                  <c:v>0.48509832919253681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1442194087437043</c:v>
+                  <c:v>0.14482436742496951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35034218445876503</c:v>
+                  <c:v>1.4176713842334405</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66300066858903939</c:v>
+                  <c:v>0.24168377684219722</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99580246184895915</c:v>
+                  <c:v>0.7214132039499116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12098714174925601</c:v>
+                  <c:v>0.58695166446948588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4691837406197983</c:v>
+                  <c:v>0.20417161307152965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28380617986598966</c:v>
+                  <c:v>0.18884502996530872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.33034512416872119</c:v>
+                  <c:v>0.87256934590779101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2489021993824987</c:v>
+                  <c:v>0.85054527568000293</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.70408970135368354</c:v>
+                  <c:v>0.36004941797442941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.076821164596397</c:v>
+                  <c:v>0.61193149715160122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0422798265995177</c:v>
+                  <c:v>0.48547814970935382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19542540617824816</c:v>
+                  <c:v>0.86679015204276877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27259100660928248</c:v>
+                  <c:v>0.1859897618116832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.449384833374846</c:v>
+                  <c:v>0.25736457201472435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17206878419125216</c:v>
+                  <c:v>1.3256648362967711</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22371391124160867</c:v>
+                  <c:v>0.71661934332309529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3587267172783708</c:v>
+                  <c:v>1.3526368408685003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52601268098955245</c:v>
+                  <c:v>0.70935004315446382</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0725426985964919</c:v>
+                  <c:v>1.3459432078971398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.39913821874137118</c:v>
+                  <c:v>0.485865993603736</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3950975614724073</c:v>
+                  <c:v>1.2995562078557401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.33211569759929066</c:v>
+                  <c:v>1.2818557182801662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98729801017117991</c:v>
+                  <c:v>0.4616249226539364</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.62459708887737908</c:v>
+                  <c:v>0.64945448014679663</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3410288492317266</c:v>
+                  <c:v>1.1205666969056309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.90462232233099615</c:v>
+                  <c:v>1.0406098270184982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.27456307869537694</c:v>
+                  <c:v>1.4609707108956642</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.484500552268019</c:v>
+                  <c:v>0.75406612887627866</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1563156009135338</c:v>
+                  <c:v>1.0623053341094446</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.3084907370660774E-4</c:v>
+                  <c:v>0.63078567379252881</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.73847313893868771</c:v>
+                  <c:v>1.4724171143668046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43795383434528051</c:v>
+                  <c:v>0.73733806676378921</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.17997157741989467</c:v>
+                  <c:v>5.5877294922940857E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8593570056477084E-2</c:v>
+                  <c:v>1.2799331586756657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4394462458623782</c:v>
+                  <c:v>1.3721548967974202</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8851098653009619E-2</c:v>
+                  <c:v>1.0339405591052493</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.35451910847868362</c:v>
+                  <c:v>1.0280589562666398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.26995244897073795</c:v>
+                  <c:v>0.55135484363311349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.74666631000166928</c:v>
+                  <c:v>0.75051400357697506</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1331002370326204</c:v>
+                  <c:v>0.90008037524005735</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8574709034244582</c:v>
+                  <c:v>1.2980688453519966</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25722481647248513</c:v>
+                  <c:v>0.31638556805497642</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.48033364668916406</c:v>
+                  <c:v>1.1447891654177809</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13810732323273217</c:v>
+                  <c:v>0.94295169039689575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.52928729071294134</c:v>
+                  <c:v>0.1581589291029103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90309092321195561</c:v>
+                  <c:v>0.91693422079655174</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1865316947413067</c:v>
+                  <c:v>1.137340151780784</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.78111386067956912</c:v>
+                  <c:v>0.28713244116725206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.81353916847545515</c:v>
+                  <c:v>1.0673246226719935</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2772376896892368E-2</c:v>
+                  <c:v>1.0673755269240415</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3972650345258397</c:v>
+                  <c:v>0.44379383940490919</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77603085609025491</c:v>
+                  <c:v>0.52721073283444342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13570242017229711</c:v>
+                  <c:v>0.98975464325819118</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4196393984980509</c:v>
+                  <c:v>0.88859046034008737</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.93517844300827369</c:v>
+                  <c:v>1.377581204393606</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.17557082274155666</c:v>
+                  <c:v>1.2367943719119971</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.97171033368319704</c:v>
+                  <c:v>0.84850795732329898</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98043236620410923</c:v>
+                  <c:v>0.74820952452261102</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54616606818056268</c:v>
+                  <c:v>1.2924963999682086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4644114791836676</c:v>
+                  <c:v>1.2145877239018847</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98502724460536628</c:v>
+                  <c:v>1.3255467122177809</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.524275202177878E-2</c:v>
+                  <c:v>0.15234644597503438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.7916034289332166E-2</c:v>
+                  <c:v>0.85801579865197175</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.29904998995533277</c:v>
+                  <c:v>1.1179754272223021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16313512974780292</c:v>
+                  <c:v>1.0928620653381727</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4492902097669635</c:v>
+                  <c:v>0.9326599933051346</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.39304794533439635</c:v>
+                  <c:v>1.1095478275547692</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.93020631100055495</c:v>
+                  <c:v>0.85076258557457507</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.24068365433245681</c:v>
+                  <c:v>0.36460433136271297</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.25376614782086998</c:v>
+                  <c:v>0.36594002986318419</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.4180209147415548</c:v>
+                  <c:v>0.50081439677849715</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.4866680222953619</c:v>
+                  <c:v>0.9284384371166855</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4344094087323667</c:v>
+                  <c:v>0.67722914060749706</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.23631395051998683</c:v>
+                  <c:v>0.34634610849747427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3106095391964274</c:v>
+                  <c:v>1.2634277990573184</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1051998614615852</c:v>
+                  <c:v>0.79187606170184921</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4935102892470304</c:v>
+                  <c:v>0.41645497859048847</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.12277543910050676</c:v>
+                  <c:v>1.0551193586621554</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.50382787986312594</c:v>
+                  <c:v>1.4609485896323164</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.2627548650984075</c:v>
+                  <c:v>1.1227316397185718</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.96927058116083797</c:v>
+                  <c:v>0.71117317747052433</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.209494611471114</c:v>
+                  <c:v>1.3920215542117031</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6640331394395256E-2</c:v>
+                  <c:v>0.65141764688756032</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.418557955122778</c:v>
+                  <c:v>0.65762513599871286</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.61342840217885364</c:v>
+                  <c:v>1.4902212741302132</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.2344794778934249E-2</c:v>
+                  <c:v>0.86313976356165423</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.6480381430293352E-3</c:v>
+                  <c:v>0.64733217884456595</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8857210650219054</c:v>
+                  <c:v>0.46114712866970398</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.8678342867195588E-2</c:v>
+                  <c:v>1.0093773769068588</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.3780854531985263</c:v>
+                  <c:v>1.4456267912094019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.50370980379283625</c:v>
+                  <c:v>7.3983135988184845E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.4710958136914318E-2</c:v>
+                  <c:v>0.25312582229722291</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.36709283256219877</c:v>
+                  <c:v>0.83883138997611695</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.2439887397413891</c:v>
+                  <c:v>1.3945277255450286</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2264272144042796E-2</c:v>
+                  <c:v>3.4386565284032E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2606955819162227</c:v>
+                  <c:v>0.15819517649363074</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2640020563226726E-2</c:v>
+                  <c:v>0.35031828919152896</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4801194060037235</c:v>
+                  <c:v>1.0586967486436589</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.1918690245960883</c:v>
+                  <c:v>3.1488738926297666E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.2110302209746928</c:v>
+                  <c:v>6.1414193619995894E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.2572075383885011E-2</c:v>
+                  <c:v>0.95090709636504145</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.41902652388837214</c:v>
+                  <c:v>1.4783846265439453</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.32150585564715739</c:v>
+                  <c:v>0.3421211747527107</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.91200694719191555</c:v>
+                  <c:v>0.57151200497872168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15119946633427755</c:v>
+                  <c:v>2.6472486898583281E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.50443161098750089</c:v>
+                  <c:v>0.22931363819413708</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.33180172696372379</c:v>
+                  <c:v>1.0127557639975548</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.74901860925446928</c:v>
+                  <c:v>0.10309504086613558</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.2811808221211565</c:v>
+                  <c:v>1.3792331406962406</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.2457002040135789</c:v>
+                  <c:v>0.38818077248711536</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1792598309618429</c:v>
+                  <c:v>1.0939473730562272</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.9341015498950656E-2</c:v>
+                  <c:v>1.2789867768996133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.92548907530791669</c:v>
+                  <c:v>0.8266422893005847</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.7525855666147006E-2</c:v>
+                  <c:v>3.2246440478832461E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.0516323501182159</c:v>
+                  <c:v>0.86861713360362347</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.61820835380312755</c:v>
+                  <c:v>1.3895913302910909</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.2274104736285637</c:v>
+                  <c:v>0.35164438896065592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.47629454929025161</c:v>
+                  <c:v>4.9430977893774708E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.24934937650004418</c:v>
+                  <c:v>1.086657242155189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9201332609539628E-2</c:v>
+                  <c:v>1.3361024888311299</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.98107456238122204</c:v>
+                  <c:v>1.1032781728367733</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.460187022460518</c:v>
+                  <c:v>1.2662683836386674</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.99380541465237071</c:v>
+                  <c:v>4.540836911187035E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.89007448343082096</c:v>
+                  <c:v>1.0934982951374237</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.43106172004842824</c:v>
+                  <c:v>1.3175141699105413</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.41718072611541784</c:v>
+                  <c:v>1.0884154359925451</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0649265403173169</c:v>
+                  <c:v>1.1621111472228636</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.21942418457095136</c:v>
+                  <c:v>1.3553582768694148</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.93740719743939782</c:v>
+                  <c:v>0.11371778980557962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,511 +1786,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>0.41313152020264843</c:v>
+                  <c:v>0.71117643844981071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0841552452416492</c:v>
+                  <c:v>1.4787863005019977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45170923827872572</c:v>
+                  <c:v>0.63371365489569942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81546891807299693</c:v>
+                  <c:v>1.3236453102340957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1189114243862703</c:v>
+                  <c:v>1.4272608263952109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64312580814140929</c:v>
+                  <c:v>1.225047061818628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46053405788936347</c:v>
+                  <c:v>1.3323081182806518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19748639895243469</c:v>
+                  <c:v>1.0878895105213362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47170017269300707</c:v>
+                  <c:v>0.50853261475642864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88458046646810284</c:v>
+                  <c:v>0.59718179815383521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4348070961743034</c:v>
+                  <c:v>0.1940497051836258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52407431200805632</c:v>
+                  <c:v>0.67830788701636036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8024766321133809E-2</c:v>
+                  <c:v>0.84667667368802246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44117067018824258</c:v>
+                  <c:v>0.1657682639145926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3935805211876724</c:v>
+                  <c:v>9.1582319654012645E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1879735531767073</c:v>
+                  <c:v>0.9960846756496764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53350588377598429</c:v>
+                  <c:v>1.3190871625375133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1468211234772399</c:v>
+                  <c:v>1.3519211047502506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.036884251937777E-2</c:v>
+                  <c:v>1.2419165348141439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82288364656613133</c:v>
+                  <c:v>0.87932317783306835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67868478627752449</c:v>
+                  <c:v>0.55515016287766616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23518366164690829</c:v>
+                  <c:v>1.1322797968113036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3155868587408408</c:v>
+                  <c:v>1.4410721550473538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95521071600085072</c:v>
+                  <c:v>0.3101232762781449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3866116343907034</c:v>
+                  <c:v>1.1933071978871164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4427694364731551</c:v>
+                  <c:v>0.82744846136728822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70234616748899836</c:v>
+                  <c:v>0.24013111727458192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9371074807716842E-2</c:v>
+                  <c:v>0.31550787450984608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4729477393714046</c:v>
+                  <c:v>1.4051758912433305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14775167949764101</c:v>
+                  <c:v>0.51455036743106364</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52131166235104742</c:v>
+                  <c:v>1.1234420635858136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82734701127173593</c:v>
+                  <c:v>0.91287457108845071</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12589585804631509</c:v>
+                  <c:v>0.83154384917345625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74007342230374351</c:v>
+                  <c:v>0.51666199198344476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.84451022853950897</c:v>
+                  <c:v>0.57576977306974375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17842695361885785</c:v>
+                  <c:v>5.7138708597642418E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33084675696346905</c:v>
+                  <c:v>0.14527496494690223</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1938182227798704E-3</c:v>
+                  <c:v>1.1910160123912559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5513086972855652</c:v>
+                  <c:v>0.48509832919253681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1442194087437043</c:v>
+                  <c:v>0.14482436742496951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35034218445876503</c:v>
+                  <c:v>1.4176713842334405</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66300066858903939</c:v>
+                  <c:v>0.24168377684219722</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99580246184895915</c:v>
+                  <c:v>0.7214132039499116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12098714174925601</c:v>
+                  <c:v>0.58695166446948588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4691837406197983</c:v>
+                  <c:v>0.20417161307152965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28380617986598966</c:v>
+                  <c:v>0.18884502996530872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.33034512416872119</c:v>
+                  <c:v>0.87256934590779101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2489021993824987</c:v>
+                  <c:v>0.85054527568000293</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.70408970135368354</c:v>
+                  <c:v>0.36004941797442941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.076821164596397</c:v>
+                  <c:v>0.61193149715160122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0422798265995177</c:v>
+                  <c:v>0.48547814970935382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19542540617824816</c:v>
+                  <c:v>0.86679015204276877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27259100660928248</c:v>
+                  <c:v>0.1859897618116832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.449384833374846</c:v>
+                  <c:v>0.25736457201472435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17206878419125216</c:v>
+                  <c:v>1.3256648362967711</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22371391124160867</c:v>
+                  <c:v>0.71661934332309529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3587267172783708</c:v>
+                  <c:v>1.3526368408685003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52601268098955245</c:v>
+                  <c:v>0.70935004315446382</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0725426985964919</c:v>
+                  <c:v>1.3459432078971398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.39913821874137118</c:v>
+                  <c:v>0.485865993603736</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3950975614724073</c:v>
+                  <c:v>1.2995562078557401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.33211569759929066</c:v>
+                  <c:v>1.2818557182801662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98729801017117991</c:v>
+                  <c:v>0.4616249226539364</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.62459708887737908</c:v>
+                  <c:v>0.64945448014679663</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3410288492317266</c:v>
+                  <c:v>1.1205666969056309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.90462232233099615</c:v>
+                  <c:v>1.0406098270184982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.27456307869537694</c:v>
+                  <c:v>1.4609707108956642</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.484500552268019</c:v>
+                  <c:v>0.75406612887627866</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1563156009135338</c:v>
+                  <c:v>1.0623053341094446</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.3084907370660774E-4</c:v>
+                  <c:v>0.63078567379252881</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.73847313893868771</c:v>
+                  <c:v>1.4724171143668046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43795383434528051</c:v>
+                  <c:v>0.73733806676378921</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.17997157741989467</c:v>
+                  <c:v>5.5877294922940857E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8593570056477084E-2</c:v>
+                  <c:v>1.2799331586756657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4394462458623782</c:v>
+                  <c:v>1.3721548967974202</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8851098653009619E-2</c:v>
+                  <c:v>1.0339405591052493</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.35451910847868362</c:v>
+                  <c:v>1.0280589562666398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.26995244897073795</c:v>
+                  <c:v>0.55135484363311349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.74666631000166928</c:v>
+                  <c:v>0.75051400357697506</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1331002370326204</c:v>
+                  <c:v>0.90008037524005735</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8574709034244582</c:v>
+                  <c:v>1.2980688453519966</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25722481647248513</c:v>
+                  <c:v>0.31638556805497642</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.48033364668916406</c:v>
+                  <c:v>1.1447891654177809</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13810732323273217</c:v>
+                  <c:v>0.94295169039689575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.52928729071294134</c:v>
+                  <c:v>0.1581589291029103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90309092321195561</c:v>
+                  <c:v>0.91693422079655174</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1865316947413067</c:v>
+                  <c:v>1.137340151780784</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.78111386067956912</c:v>
+                  <c:v>0.28713244116725206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.81353916847545515</c:v>
+                  <c:v>1.0673246226719935</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2772376896892368E-2</c:v>
+                  <c:v>1.0673755269240415</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3972650345258397</c:v>
+                  <c:v>0.44379383940490919</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77603085609025491</c:v>
+                  <c:v>0.52721073283444342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13570242017229711</c:v>
+                  <c:v>0.98975464325819118</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4196393984980509</c:v>
+                  <c:v>0.88859046034008737</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.93517844300827369</c:v>
+                  <c:v>1.377581204393606</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.17557082274155666</c:v>
+                  <c:v>1.2367943719119971</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.97171033368319704</c:v>
+                  <c:v>0.84850795732329898</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98043236620410923</c:v>
+                  <c:v>0.74820952452261102</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54616606818056268</c:v>
+                  <c:v>1.2924963999682086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4644114791836676</c:v>
+                  <c:v>1.2145877239018847</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98502724460536628</c:v>
+                  <c:v>1.3255467122177809</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.524275202177878E-2</c:v>
+                  <c:v>0.15234644597503438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.7916034289332166E-2</c:v>
+                  <c:v>0.85801579865197175</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.29904998995533277</c:v>
+                  <c:v>1.1179754272223021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16313512974780292</c:v>
+                  <c:v>1.0928620653381727</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4492902097669635</c:v>
+                  <c:v>0.9326599933051346</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.39304794533439635</c:v>
+                  <c:v>1.1095478275547692</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.93020631100055495</c:v>
+                  <c:v>0.85076258557457507</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.24068365433245681</c:v>
+                  <c:v>0.36460433136271297</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.25376614782086998</c:v>
+                  <c:v>0.36594002986318419</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.4180209147415548</c:v>
+                  <c:v>0.50081439677849715</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.4866680222953619</c:v>
+                  <c:v>0.9284384371166855</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4344094087323667</c:v>
+                  <c:v>0.67722914060749706</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.23631395051998683</c:v>
+                  <c:v>0.34634610849747427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3106095391964274</c:v>
+                  <c:v>1.2634277990573184</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1051998614615852</c:v>
+                  <c:v>0.79187606170184921</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4935102892470304</c:v>
+                  <c:v>0.41645497859048847</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.12277543910050676</c:v>
+                  <c:v>1.0551193586621554</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.50382787986312594</c:v>
+                  <c:v>1.4609485896323164</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.2627548650984075</c:v>
+                  <c:v>1.1227316397185718</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.96927058116083797</c:v>
+                  <c:v>0.71117317747052433</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.209494611471114</c:v>
+                  <c:v>1.3920215542117031</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6640331394395256E-2</c:v>
+                  <c:v>0.65141764688756032</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.418557955122778</c:v>
+                  <c:v>0.65762513599871286</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.61342840217885364</c:v>
+                  <c:v>1.4902212741302132</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.2344794778934249E-2</c:v>
+                  <c:v>0.86313976356165423</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.6480381430293352E-3</c:v>
+                  <c:v>0.64733217884456595</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8857210650219054</c:v>
+                  <c:v>0.46114712866970398</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.8678342867195588E-2</c:v>
+                  <c:v>1.0093773769068588</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.3780854531985263</c:v>
+                  <c:v>1.4456267912094019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.50370980379283625</c:v>
+                  <c:v>7.3983135988184845E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.4710958136914318E-2</c:v>
+                  <c:v>0.25312582229722291</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.36709283256219877</c:v>
+                  <c:v>0.83883138997611695</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.2439887397413891</c:v>
+                  <c:v>1.3945277255450286</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2264272144042796E-2</c:v>
+                  <c:v>3.4386565284032E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2606955819162227</c:v>
+                  <c:v>0.15819517649363074</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2640020563226726E-2</c:v>
+                  <c:v>0.35031828919152896</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4801194060037235</c:v>
+                  <c:v>1.0586967486436589</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.1918690245960883</c:v>
+                  <c:v>3.1488738926297666E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.2110302209746928</c:v>
+                  <c:v>6.1414193619995894E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.2572075383885011E-2</c:v>
+                  <c:v>0.95090709636504145</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.41902652388837214</c:v>
+                  <c:v>1.4783846265439453</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.32150585564715739</c:v>
+                  <c:v>0.3421211747527107</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.91200694719191555</c:v>
+                  <c:v>0.57151200497872168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15119946633427755</c:v>
+                  <c:v>2.6472486898583281E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.50443161098750089</c:v>
+                  <c:v>0.22931363819413708</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.33180172696372379</c:v>
+                  <c:v>1.0127557639975548</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.74901860925446928</c:v>
+                  <c:v>0.10309504086613558</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.2811808221211565</c:v>
+                  <c:v>1.3792331406962406</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.2457002040135789</c:v>
+                  <c:v>0.38818077248711536</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1792598309618429</c:v>
+                  <c:v>1.0939473730562272</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.9341015498950656E-2</c:v>
+                  <c:v>1.2789867768996133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.92548907530791669</c:v>
+                  <c:v>0.8266422893005847</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.7525855666147006E-2</c:v>
+                  <c:v>3.2246440478832461E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.0516323501182159</c:v>
+                  <c:v>0.86861713360362347</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.61820835380312755</c:v>
+                  <c:v>1.3895913302910909</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.2274104736285637</c:v>
+                  <c:v>0.35164438896065592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.47629454929025161</c:v>
+                  <c:v>4.9430977893774708E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.24934937650004418</c:v>
+                  <c:v>1.086657242155189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9201332609539628E-2</c:v>
+                  <c:v>1.3361024888311299</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.98107456238122204</c:v>
+                  <c:v>1.1032781728367733</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.460187022460518</c:v>
+                  <c:v>1.2662683836386674</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.99380541465237071</c:v>
+                  <c:v>4.540836911187035E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.89007448343082096</c:v>
+                  <c:v>1.0934982951374237</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.43106172004842824</c:v>
+                  <c:v>1.3175141699105413</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.41718072611541784</c:v>
+                  <c:v>1.0884154359925451</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0649265403173169</c:v>
+                  <c:v>1.1621111472228636</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.21942418457095136</c:v>
+                  <c:v>1.3553582768694148</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.93740719743939782</c:v>
+                  <c:v>0.11371778980557962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,11 +2305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-610294064"/>
-        <c:axId val="-610284272"/>
+        <c:axId val="382587424"/>
+        <c:axId val="382586880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-610294064"/>
+        <c:axId val="382587424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,12 +2366,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-610284272"/>
+        <c:crossAx val="382586880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-610284272"/>
+        <c:axId val="382586880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2428,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-610294064"/>
+        <c:crossAx val="382587424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2603,511 +2603,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>0.41313152020264843</c:v>
+                  <c:v>0.71117643844981071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0841552452416492</c:v>
+                  <c:v>1.4787863005019977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45170923827872572</c:v>
+                  <c:v>0.63371365489569942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81546891807299693</c:v>
+                  <c:v>1.3236453102340957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1189114243862703</c:v>
+                  <c:v>1.4272608263952109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64312580814140929</c:v>
+                  <c:v>1.225047061818628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46053405788936347</c:v>
+                  <c:v>1.3323081182806518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19748639895243469</c:v>
+                  <c:v>1.0878895105213362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47170017269300707</c:v>
+                  <c:v>0.50853261475642864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88458046646810284</c:v>
+                  <c:v>0.59718179815383521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4348070961743034</c:v>
+                  <c:v>0.1940497051836258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52407431200805632</c:v>
+                  <c:v>0.67830788701636036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8024766321133809E-2</c:v>
+                  <c:v>0.84667667368802246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44117067018824258</c:v>
+                  <c:v>0.1657682639145926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3935805211876724</c:v>
+                  <c:v>9.1582319654012645E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1879735531767073</c:v>
+                  <c:v>0.9960846756496764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53350588377598429</c:v>
+                  <c:v>1.3190871625375133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1468211234772399</c:v>
+                  <c:v>1.3519211047502506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.036884251937777E-2</c:v>
+                  <c:v>1.2419165348141439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82288364656613133</c:v>
+                  <c:v>0.87932317783306835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67868478627752449</c:v>
+                  <c:v>0.55515016287766616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23518366164690829</c:v>
+                  <c:v>1.1322797968113036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3155868587408408</c:v>
+                  <c:v>1.4410721550473538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95521071600085072</c:v>
+                  <c:v>0.3101232762781449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3866116343907034</c:v>
+                  <c:v>1.1933071978871164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4427694364731551</c:v>
+                  <c:v>0.82744846136728822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70234616748899836</c:v>
+                  <c:v>0.24013111727458192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9371074807716842E-2</c:v>
+                  <c:v>0.31550787450984608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4729477393714046</c:v>
+                  <c:v>1.4051758912433305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14775167949764101</c:v>
+                  <c:v>0.51455036743106364</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52131166235104742</c:v>
+                  <c:v>1.1234420635858136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82734701127173593</c:v>
+                  <c:v>0.91287457108845071</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12589585804631509</c:v>
+                  <c:v>0.83154384917345625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74007342230374351</c:v>
+                  <c:v>0.51666199198344476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.84451022853950897</c:v>
+                  <c:v>0.57576977306974375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17842695361885785</c:v>
+                  <c:v>5.7138708597642418E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33084675696346905</c:v>
+                  <c:v>0.14527496494690223</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1938182227798704E-3</c:v>
+                  <c:v>1.1910160123912559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5513086972855652</c:v>
+                  <c:v>0.48509832919253681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1442194087437043</c:v>
+                  <c:v>0.14482436742496951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35034218445876503</c:v>
+                  <c:v>1.4176713842334405</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66300066858903939</c:v>
+                  <c:v>0.24168377684219722</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99580246184895915</c:v>
+                  <c:v>0.7214132039499116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12098714174925601</c:v>
+                  <c:v>0.58695166446948588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4691837406197983</c:v>
+                  <c:v>0.20417161307152965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28380617986598966</c:v>
+                  <c:v>0.18884502996530872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.33034512416872119</c:v>
+                  <c:v>0.87256934590779101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2489021993824987</c:v>
+                  <c:v>0.85054527568000293</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.70408970135368354</c:v>
+                  <c:v>0.36004941797442941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.076821164596397</c:v>
+                  <c:v>0.61193149715160122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0422798265995177</c:v>
+                  <c:v>0.48547814970935382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19542540617824816</c:v>
+                  <c:v>0.86679015204276877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27259100660928248</c:v>
+                  <c:v>0.1859897618116832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.449384833374846</c:v>
+                  <c:v>0.25736457201472435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17206878419125216</c:v>
+                  <c:v>1.3256648362967711</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22371391124160867</c:v>
+                  <c:v>0.71661934332309529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3587267172783708</c:v>
+                  <c:v>1.3526368408685003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52601268098955245</c:v>
+                  <c:v>0.70935004315446382</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0725426985964919</c:v>
+                  <c:v>1.3459432078971398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.39913821874137118</c:v>
+                  <c:v>0.485865993603736</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3950975614724073</c:v>
+                  <c:v>1.2995562078557401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.33211569759929066</c:v>
+                  <c:v>1.2818557182801662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98729801017117991</c:v>
+                  <c:v>0.4616249226539364</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.62459708887737908</c:v>
+                  <c:v>0.64945448014679663</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3410288492317266</c:v>
+                  <c:v>1.1205666969056309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.90462232233099615</c:v>
+                  <c:v>1.0406098270184982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.27456307869537694</c:v>
+                  <c:v>1.4609707108956642</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.484500552268019</c:v>
+                  <c:v>0.75406612887627866</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1563156009135338</c:v>
+                  <c:v>1.0623053341094446</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.3084907370660774E-4</c:v>
+                  <c:v>0.63078567379252881</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.73847313893868771</c:v>
+                  <c:v>1.4724171143668046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43795383434528051</c:v>
+                  <c:v>0.73733806676378921</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.17997157741989467</c:v>
+                  <c:v>5.5877294922940857E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8593570056477084E-2</c:v>
+                  <c:v>1.2799331586756657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4394462458623782</c:v>
+                  <c:v>1.3721548967974202</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8851098653009619E-2</c:v>
+                  <c:v>1.0339405591052493</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.35451910847868362</c:v>
+                  <c:v>1.0280589562666398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.26995244897073795</c:v>
+                  <c:v>0.55135484363311349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.74666631000166928</c:v>
+                  <c:v>0.75051400357697506</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1331002370326204</c:v>
+                  <c:v>0.90008037524005735</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8574709034244582</c:v>
+                  <c:v>1.2980688453519966</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25722481647248513</c:v>
+                  <c:v>0.31638556805497642</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.48033364668916406</c:v>
+                  <c:v>1.1447891654177809</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13810732323273217</c:v>
+                  <c:v>0.94295169039689575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.52928729071294134</c:v>
+                  <c:v>0.1581589291029103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90309092321195561</c:v>
+                  <c:v>0.91693422079655174</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1865316947413067</c:v>
+                  <c:v>1.137340151780784</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.78111386067956912</c:v>
+                  <c:v>0.28713244116725206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.81353916847545515</c:v>
+                  <c:v>1.0673246226719935</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2772376896892368E-2</c:v>
+                  <c:v>1.0673755269240415</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3972650345258397</c:v>
+                  <c:v>0.44379383940490919</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77603085609025491</c:v>
+                  <c:v>0.52721073283444342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13570242017229711</c:v>
+                  <c:v>0.98975464325819118</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4196393984980509</c:v>
+                  <c:v>0.88859046034008737</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.93517844300827369</c:v>
+                  <c:v>1.377581204393606</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.17557082274155666</c:v>
+                  <c:v>1.2367943719119971</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.97171033368319704</c:v>
+                  <c:v>0.84850795732329898</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98043236620410923</c:v>
+                  <c:v>0.74820952452261102</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54616606818056268</c:v>
+                  <c:v>1.2924963999682086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4644114791836676</c:v>
+                  <c:v>1.2145877239018847</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98502724460536628</c:v>
+                  <c:v>1.3255467122177809</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.524275202177878E-2</c:v>
+                  <c:v>0.15234644597503438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.7916034289332166E-2</c:v>
+                  <c:v>0.85801579865197175</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.29904998995533277</c:v>
+                  <c:v>1.1179754272223021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16313512974780292</c:v>
+                  <c:v>1.0928620653381727</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4492902097669635</c:v>
+                  <c:v>0.9326599933051346</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.39304794533439635</c:v>
+                  <c:v>1.1095478275547692</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.93020631100055495</c:v>
+                  <c:v>0.85076258557457507</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.24068365433245681</c:v>
+                  <c:v>0.36460433136271297</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.25376614782086998</c:v>
+                  <c:v>0.36594002986318419</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.4180209147415548</c:v>
+                  <c:v>0.50081439677849715</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.4866680222953619</c:v>
+                  <c:v>0.9284384371166855</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4344094087323667</c:v>
+                  <c:v>0.67722914060749706</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.23631395051998683</c:v>
+                  <c:v>0.34634610849747427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3106095391964274</c:v>
+                  <c:v>1.2634277990573184</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1051998614615852</c:v>
+                  <c:v>0.79187606170184921</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4935102892470304</c:v>
+                  <c:v>0.41645497859048847</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.12277543910050676</c:v>
+                  <c:v>1.0551193586621554</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.50382787986312594</c:v>
+                  <c:v>1.4609485896323164</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.2627548650984075</c:v>
+                  <c:v>1.1227316397185718</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.96927058116083797</c:v>
+                  <c:v>0.71117317747052433</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.209494611471114</c:v>
+                  <c:v>1.3920215542117031</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6640331394395256E-2</c:v>
+                  <c:v>0.65141764688756032</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.418557955122778</c:v>
+                  <c:v>0.65762513599871286</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.61342840217885364</c:v>
+                  <c:v>1.4902212741302132</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.2344794778934249E-2</c:v>
+                  <c:v>0.86313976356165423</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.6480381430293352E-3</c:v>
+                  <c:v>0.64733217884456595</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8857210650219054</c:v>
+                  <c:v>0.46114712866970398</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.8678342867195588E-2</c:v>
+                  <c:v>1.0093773769068588</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.3780854531985263</c:v>
+                  <c:v>1.4456267912094019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.50370980379283625</c:v>
+                  <c:v>7.3983135988184845E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.4710958136914318E-2</c:v>
+                  <c:v>0.25312582229722291</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.36709283256219877</c:v>
+                  <c:v>0.83883138997611695</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.2439887397413891</c:v>
+                  <c:v>1.3945277255450286</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2264272144042796E-2</c:v>
+                  <c:v>3.4386565284032E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2606955819162227</c:v>
+                  <c:v>0.15819517649363074</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2640020563226726E-2</c:v>
+                  <c:v>0.35031828919152896</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4801194060037235</c:v>
+                  <c:v>1.0586967486436589</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.1918690245960883</c:v>
+                  <c:v>3.1488738926297666E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.2110302209746928</c:v>
+                  <c:v>6.1414193619995894E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.2572075383885011E-2</c:v>
+                  <c:v>0.95090709636504145</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.41902652388837214</c:v>
+                  <c:v>1.4783846265439453</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.32150585564715739</c:v>
+                  <c:v>0.3421211747527107</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.91200694719191555</c:v>
+                  <c:v>0.57151200497872168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15119946633427755</c:v>
+                  <c:v>2.6472486898583281E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.50443161098750089</c:v>
+                  <c:v>0.22931363819413708</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.33180172696372379</c:v>
+                  <c:v>1.0127557639975548</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.74901860925446928</c:v>
+                  <c:v>0.10309504086613558</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.2811808221211565</c:v>
+                  <c:v>1.3792331406962406</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.2457002040135789</c:v>
+                  <c:v>0.38818077248711536</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1792598309618429</c:v>
+                  <c:v>1.0939473730562272</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.9341015498950656E-2</c:v>
+                  <c:v>1.2789867768996133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.92548907530791669</c:v>
+                  <c:v>0.8266422893005847</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.7525855666147006E-2</c:v>
+                  <c:v>3.2246440478832461E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.0516323501182159</c:v>
+                  <c:v>0.86861713360362347</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.61820835380312755</c:v>
+                  <c:v>1.3895913302910909</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.2274104736285637</c:v>
+                  <c:v>0.35164438896065592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.47629454929025161</c:v>
+                  <c:v>4.9430977893774708E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.24934937650004418</c:v>
+                  <c:v>1.086657242155189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9201332609539628E-2</c:v>
+                  <c:v>1.3361024888311299</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.98107456238122204</c:v>
+                  <c:v>1.1032781728367733</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.460187022460518</c:v>
+                  <c:v>1.2662683836386674</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.99380541465237071</c:v>
+                  <c:v>4.540836911187035E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.89007448343082096</c:v>
+                  <c:v>1.0934982951374237</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.43106172004842824</c:v>
+                  <c:v>1.3175141699105413</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.41718072611541784</c:v>
+                  <c:v>1.0884154359925451</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0649265403173169</c:v>
+                  <c:v>1.1621111472228636</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.21942418457095136</c:v>
+                  <c:v>1.3553582768694148</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.93740719743939782</c:v>
+                  <c:v>0.11371778980557962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,511 +3119,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>9.4498565525198641E-2</c:v>
+                  <c:v>1.3449334704376859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8783904882185849E-2</c:v>
+                  <c:v>0.62846457168288239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19046047985222953</c:v>
+                  <c:v>0.78432093006928427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.31327086433053</c:v>
+                  <c:v>1.037055195245721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46907074118319358</c:v>
+                  <c:v>1.2918149880277634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.007411374379827</c:v>
+                  <c:v>9.609580266034673E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37481278530928847</c:v>
+                  <c:v>1.4350948597178879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34651375331676409</c:v>
+                  <c:v>1.4467935171479991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9037592954160294</c:v>
+                  <c:v>0.74503366114893455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38492379442496377</c:v>
+                  <c:v>1.0075572855604833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72419439423712562</c:v>
+                  <c:v>1.2493494776764984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36376254454056306</c:v>
+                  <c:v>0.84446029649182208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46154336910423949</c:v>
+                  <c:v>0.52825370591469345</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3066005829270186</c:v>
+                  <c:v>0.9341004409580268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7504408274965992E-2</c:v>
+                  <c:v>0.9932669572027224</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13180230731423898</c:v>
+                  <c:v>0.98494236294716719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.296555624670634</c:v>
+                  <c:v>1.3990790479871129</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3502070131957125</c:v>
+                  <c:v>1.4663285713122058</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77116088509542591</c:v>
+                  <c:v>1.4287061367266665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30782217818358404</c:v>
+                  <c:v>0.43822251016977387</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.038824119862223</c:v>
+                  <c:v>1.1591828441372427</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4855442505787453</c:v>
+                  <c:v>3.0728430288837094E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1997974709501293</c:v>
+                  <c:v>1.4996678908329031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.50434648649215374</c:v>
+                  <c:v>0.36616985326698653</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.80475602904320598</c:v>
+                  <c:v>6.5321978980364848E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.59236782029441826</c:v>
+                  <c:v>0.6399099154097494</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0705241838567168</c:v>
+                  <c:v>0.47825753231747653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1934714531897748</c:v>
+                  <c:v>0.93064278843578907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.28099858277693063</c:v>
+                  <c:v>9.3623992573203196E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.44729710747859563</c:v>
+                  <c:v>0.36052868015657308</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1983948479254485</c:v>
+                  <c:v>0.96705765094097607</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13950650753005345</c:v>
+                  <c:v>1.3324428425426598</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97426576468184656</c:v>
+                  <c:v>0.69563623443023792</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4812298188975377</c:v>
+                  <c:v>0.41758414017590628</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.75569716491154504</c:v>
+                  <c:v>9.3883442106605264E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.80882992671046683</c:v>
+                  <c:v>0.42367595100225558</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3864109297607024</c:v>
+                  <c:v>0.55396850464157366</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.23667421406088</c:v>
+                  <c:v>1.3055135479419866</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2469722765691189</c:v>
+                  <c:v>0.49090126353939068</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.59569109807644449</c:v>
+                  <c:v>0.82410603257114612</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.2399469257810527E-2</c:v>
+                  <c:v>5.4939613505494478E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.59622101896602597</c:v>
+                  <c:v>0.76618419604250576</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43122820527989264</c:v>
+                  <c:v>0.61865324705438818</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.60010847860449523</c:v>
+                  <c:v>1.3237687024537168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.8665825628156003E-2</c:v>
+                  <c:v>0.29363895730252304</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11358481976461277</c:v>
+                  <c:v>8.3454156809513735E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.32776285077269934</c:v>
+                  <c:v>0.42508449985587377</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3517169365746793</c:v>
+                  <c:v>7.9807987756513266E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.47335858491974858</c:v>
+                  <c:v>0.56937782701816508</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2433540793512878</c:v>
+                  <c:v>1.0904246373777857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2714467243874865</c:v>
+                  <c:v>0.345889712334362</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3785247626266919</c:v>
+                  <c:v>0.18976093423883944</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.20621021669552553</c:v>
+                  <c:v>0.27800981298701749</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2446998530750544</c:v>
+                  <c:v>0.835720851541087</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4852222652064813</c:v>
+                  <c:v>1.1932717694446937</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.6613646790986747E-2</c:v>
+                  <c:v>1.2655381110733541</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.58756531948316315</c:v>
+                  <c:v>2.1707332327638162E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.374754760462106</c:v>
+                  <c:v>0.99052367216140236</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.391791105895295</c:v>
+                  <c:v>0.49771596977258498</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.50978028274337606</c:v>
+                  <c:v>0.78464806333299619</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.91375958093420595</c:v>
+                  <c:v>2.8191585549317666E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.59047039946953384</c:v>
+                  <c:v>0.81851301153866396</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0043416297530103</c:v>
+                  <c:v>0.55255555930254352</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.0651829841715363E-2</c:v>
+                  <c:v>5.3298514790335705E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.3014155504936802E-2</c:v>
+                  <c:v>0.7196588114759821</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.82491535832809104</c:v>
+                  <c:v>0.4138140862633195</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2993483231470768</c:v>
+                  <c:v>0.59850049771294667</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.54675733957078698</c:v>
+                  <c:v>0.84947135428224685</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.71189785310884779</c:v>
+                  <c:v>0.17554972580576067</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.29309795090274399</c:v>
+                  <c:v>1.1566150302709466</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.91450924239376119</c:v>
+                  <c:v>2.3537529023515247E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3388355533399463</c:v>
+                  <c:v>1.3293583436981276</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.54228390045586672</c:v>
+                  <c:v>1.0726706658272533</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.879910305042791</c:v>
+                  <c:v>0.26860159027550601</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.42240289981134582</c:v>
+                  <c:v>0.81410934940138102</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.63773855356140341</c:v>
+                  <c:v>1.4483879390468011</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.55865387774357211</c:v>
+                  <c:v>0.57965427069288744</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.57874714226103907</c:v>
+                  <c:v>0.36148605185507743</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.57623369752623155</c:v>
+                  <c:v>0.45474776511624948</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.6945872860139088E-2</c:v>
+                  <c:v>1.2396147002352809</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.21147646077327936</c:v>
+                  <c:v>0.94372007077291076</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.141226077149049</c:v>
+                  <c:v>0.83390198912995572</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.4352745052419935</c:v>
+                  <c:v>1.9511330210150946E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.2734017692953183</c:v>
+                  <c:v>1.2730038944952708</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.82592151048877716</c:v>
+                  <c:v>0.7702502291585831</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3477411698217119</c:v>
+                  <c:v>1.0627226275537056</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.3393113646486694</c:v>
+                  <c:v>0.36888141642743472</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.724699335024513</c:v>
+                  <c:v>0.49762230876167912</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2500050036804176</c:v>
+                  <c:v>0.90567990262001907</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.72885957527184109</c:v>
+                  <c:v>0.64806722479528134</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.319610905400638</c:v>
+                  <c:v>2.7567088199644096E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.59284162399001294</c:v>
+                  <c:v>0.17775501464169313</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.3369620487239238E-2</c:v>
+                  <c:v>0.11514294217298165</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.0164911693241276</c:v>
+                  <c:v>0.17389320140255782</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.2489175264275632</c:v>
+                  <c:v>1.1867719629783675</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.21967524756702167</c:v>
+                  <c:v>0.300652409532356</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.10649619855849751</c:v>
+                  <c:v>0.29083196553619961</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.1554208574983296</c:v>
+                  <c:v>0.2830025549018011</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.83595723362649621</c:v>
+                  <c:v>1.2585376015668783</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.27867794279538832</c:v>
+                  <c:v>1.2113036281714047</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.38451014442991072</c:v>
+                  <c:v>1.4356009706897093</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.56958075229543081</c:v>
+                  <c:v>0.42747737882394388</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.27159976498976796</c:v>
+                  <c:v>0.71691365955580177</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.55602235560394964</c:v>
+                  <c:v>0.63947458737563312</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16298995673791139</c:v>
+                  <c:v>0.1019072353347954</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.38513489596603917</c:v>
+                  <c:v>0.58178107413419311</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.83081013021799055</c:v>
+                  <c:v>1.0631177978894604</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.69816749964332114</c:v>
+                  <c:v>0.67131479731092969</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.58068186088661577</c:v>
+                  <c:v>0.96516715136785491</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.2339488370185561</c:v>
+                  <c:v>1.0266493993843131</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.0100602905161282</c:v>
+                  <c:v>1.2869637300530319</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.1601995097971569</c:v>
+                  <c:v>0.58827910587981491</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.23987066085607656</c:v>
+                  <c:v>0.87709567867859128</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.15967074543567072</c:v>
+                  <c:v>0.37353448183401378</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.99463761563343245</c:v>
+                  <c:v>1.2444064926791309</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1137627578519882</c:v>
+                  <c:v>1.449668941971137</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.0756436536308598</c:v>
+                  <c:v>1.1163648176298433</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.89026459173020611</c:v>
+                  <c:v>0.68992913284087742</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.2696652367629986</c:v>
+                  <c:v>8.4090097737151037E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.2236490122868073E-2</c:v>
+                  <c:v>0.92756603443346808</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.1534077598930881</c:v>
+                  <c:v>0.757746776453184</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.13563611203044285</c:v>
+                  <c:v>0.12533286571588498</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.74576628425633151</c:v>
+                  <c:v>1.18075062966428</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.4111913321734419E-2</c:v>
+                  <c:v>0.21561447975909181</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.3104661112975671</c:v>
+                  <c:v>0.50533984183722935</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.1568813405636118</c:v>
+                  <c:v>1.2113797081297162</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.98066185913224957</c:v>
+                  <c:v>1.1826269634718403</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.91819186050649981</c:v>
+                  <c:v>0.64589684714706774</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.4227154987221968</c:v>
+                  <c:v>0.1206795519572037</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.10448785249732123</c:v>
+                  <c:v>1.4896265705656242</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.45272124829018329</c:v>
+                  <c:v>1.3576814154710894</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.45168883696658324</c:v>
+                  <c:v>0.35744624938687236</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.3958472160693172</c:v>
+                  <c:v>0.50882585785779022</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.22697541744828875</c:v>
+                  <c:v>0.92399244675998093</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.58489464992615336</c:v>
+                  <c:v>4.7357413787317837E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.39836533425941767</c:v>
+                  <c:v>0.96762024759962662</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.62827130765482297</c:v>
+                  <c:v>1.288259506406769</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.37231199386352765</c:v>
+                  <c:v>1.2785244909147231</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.22829496591462678</c:v>
+                  <c:v>0.89612432188586699</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.65585490272513625</c:v>
+                  <c:v>7.5655247870529629E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.3227564890766681</c:v>
+                  <c:v>1.2329114920817448</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.0472174115986899</c:v>
+                  <c:v>0.51001113043540547</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.2833039973497835</c:v>
+                  <c:v>0.43955052868237626</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.17560937113548891</c:v>
+                  <c:v>0.69873885136048908</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.10453090921055502</c:v>
+                  <c:v>1.1501350852913896</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.85436597655810531</c:v>
+                  <c:v>0.72696540151211875</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.88921200663041211</c:v>
+                  <c:v>0.82804776619158182</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.98276749916285655</c:v>
+                  <c:v>1.4313641554224514</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.10151491975086541</c:v>
+                  <c:v>1.2399867175836423</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.4347487666162471</c:v>
+                  <c:v>0.46138972569813352</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1573864724527538</c:v>
+                  <c:v>1.1430001649000348</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.1690188534058334</c:v>
+                  <c:v>0.91056124147982853</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.35402866738439681</c:v>
+                  <c:v>1.4198080721791304</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.62239179023379387</c:v>
+                  <c:v>0.18154804474745495</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.3928331924986688</c:v>
+                  <c:v>0.12040026305480833</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.43612692344211335</c:v>
+                  <c:v>0.63533907539258794</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.8252238426266737</c:v>
+                  <c:v>0.6053858899373008</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.28542634184063281</c:v>
+                  <c:v>0.17395145607974444</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.73368524000821411</c:v>
+                  <c:v>0.48346929637473995</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.35979604367368079</c:v>
+                  <c:v>0.70063990015228295</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.46351504821734496</c:v>
+                  <c:v>1.0971264695673772</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.17865969657702996</c:v>
+                  <c:v>1.3033732803629978</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.05012924399929</c:v>
+                  <c:v>0.37242452883350197</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>9.0134155938926763E-2</c:v>
+                  <c:v>0.14461621722701451</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.83447854700045954</c:v>
+                  <c:v>0.18365458909447918</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.25499578614214757</c:v>
+                  <c:v>0.44913651703753898</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.9445747385135862</c:v>
+                  <c:v>1.013408449511302</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.97147758750454838</c:v>
+                  <c:v>3.2412464384221684E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.39867489957161761</c:v>
+                  <c:v>0.49352265393648065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3673,511 +3673,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>0.41313152020264843</c:v>
+                  <c:v>0.71117643844981071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0841552452416492</c:v>
+                  <c:v>1.4787863005019977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45170923827872572</c:v>
+                  <c:v>0.63371365489569942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81546891807299693</c:v>
+                  <c:v>1.3236453102340957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1189114243862703</c:v>
+                  <c:v>1.4272608263952109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64312580814140929</c:v>
+                  <c:v>1.225047061818628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46053405788936347</c:v>
+                  <c:v>1.3323081182806518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19748639895243469</c:v>
+                  <c:v>1.0878895105213362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47170017269300707</c:v>
+                  <c:v>0.50853261475642864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88458046646810284</c:v>
+                  <c:v>0.59718179815383521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4348070961743034</c:v>
+                  <c:v>0.1940497051836258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52407431200805632</c:v>
+                  <c:v>0.67830788701636036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8024766321133809E-2</c:v>
+                  <c:v>0.84667667368802246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44117067018824258</c:v>
+                  <c:v>0.1657682639145926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3935805211876724</c:v>
+                  <c:v>9.1582319654012645E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1879735531767073</c:v>
+                  <c:v>0.9960846756496764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53350588377598429</c:v>
+                  <c:v>1.3190871625375133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1468211234772399</c:v>
+                  <c:v>1.3519211047502506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.036884251937777E-2</c:v>
+                  <c:v>1.2419165348141439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82288364656613133</c:v>
+                  <c:v>0.87932317783306835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67868478627752449</c:v>
+                  <c:v>0.55515016287766616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23518366164690829</c:v>
+                  <c:v>1.1322797968113036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3155868587408408</c:v>
+                  <c:v>1.4410721550473538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95521071600085072</c:v>
+                  <c:v>0.3101232762781449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3866116343907034</c:v>
+                  <c:v>1.1933071978871164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4427694364731551</c:v>
+                  <c:v>0.82744846136728822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70234616748899836</c:v>
+                  <c:v>0.24013111727458192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9371074807716842E-2</c:v>
+                  <c:v>0.31550787450984608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4729477393714046</c:v>
+                  <c:v>1.4051758912433305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14775167949764101</c:v>
+                  <c:v>0.51455036743106364</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52131166235104742</c:v>
+                  <c:v>1.1234420635858136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82734701127173593</c:v>
+                  <c:v>0.91287457108845071</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12589585804631509</c:v>
+                  <c:v>0.83154384917345625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74007342230374351</c:v>
+                  <c:v>0.51666199198344476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.84451022853950897</c:v>
+                  <c:v>0.57576977306974375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17842695361885785</c:v>
+                  <c:v>5.7138708597642418E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33084675696346905</c:v>
+                  <c:v>0.14527496494690223</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1938182227798704E-3</c:v>
+                  <c:v>1.1910160123912559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5513086972855652</c:v>
+                  <c:v>0.48509832919253681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1442194087437043</c:v>
+                  <c:v>0.14482436742496951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35034218445876503</c:v>
+                  <c:v>1.4176713842334405</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66300066858903939</c:v>
+                  <c:v>0.24168377684219722</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99580246184895915</c:v>
+                  <c:v>0.7214132039499116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12098714174925601</c:v>
+                  <c:v>0.58695166446948588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4691837406197983</c:v>
+                  <c:v>0.20417161307152965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28380617986598966</c:v>
+                  <c:v>0.18884502996530872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.33034512416872119</c:v>
+                  <c:v>0.87256934590779101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2489021993824987</c:v>
+                  <c:v>0.85054527568000293</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.70408970135368354</c:v>
+                  <c:v>0.36004941797442941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.076821164596397</c:v>
+                  <c:v>0.61193149715160122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0422798265995177</c:v>
+                  <c:v>0.48547814970935382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19542540617824816</c:v>
+                  <c:v>0.86679015204276877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27259100660928248</c:v>
+                  <c:v>0.1859897618116832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.449384833374846</c:v>
+                  <c:v>0.25736457201472435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17206878419125216</c:v>
+                  <c:v>1.3256648362967711</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22371391124160867</c:v>
+                  <c:v>0.71661934332309529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3587267172783708</c:v>
+                  <c:v>1.3526368408685003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52601268098955245</c:v>
+                  <c:v>0.70935004315446382</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0725426985964919</c:v>
+                  <c:v>1.3459432078971398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.39913821874137118</c:v>
+                  <c:v>0.485865993603736</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3950975614724073</c:v>
+                  <c:v>1.2995562078557401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.33211569759929066</c:v>
+                  <c:v>1.2818557182801662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98729801017117991</c:v>
+                  <c:v>0.4616249226539364</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.62459708887737908</c:v>
+                  <c:v>0.64945448014679663</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3410288492317266</c:v>
+                  <c:v>1.1205666969056309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.90462232233099615</c:v>
+                  <c:v>1.0406098270184982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.27456307869537694</c:v>
+                  <c:v>1.4609707108956642</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.484500552268019</c:v>
+                  <c:v>0.75406612887627866</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1563156009135338</c:v>
+                  <c:v>1.0623053341094446</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.3084907370660774E-4</c:v>
+                  <c:v>0.63078567379252881</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.73847313893868771</c:v>
+                  <c:v>1.4724171143668046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43795383434528051</c:v>
+                  <c:v>0.73733806676378921</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.17997157741989467</c:v>
+                  <c:v>5.5877294922940857E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8593570056477084E-2</c:v>
+                  <c:v>1.2799331586756657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4394462458623782</c:v>
+                  <c:v>1.3721548967974202</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8851098653009619E-2</c:v>
+                  <c:v>1.0339405591052493</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.35451910847868362</c:v>
+                  <c:v>1.0280589562666398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.26995244897073795</c:v>
+                  <c:v>0.55135484363311349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.74666631000166928</c:v>
+                  <c:v>0.75051400357697506</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1331002370326204</c:v>
+                  <c:v>0.90008037524005735</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8574709034244582</c:v>
+                  <c:v>1.2980688453519966</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25722481647248513</c:v>
+                  <c:v>0.31638556805497642</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.48033364668916406</c:v>
+                  <c:v>1.1447891654177809</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13810732323273217</c:v>
+                  <c:v>0.94295169039689575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.52928729071294134</c:v>
+                  <c:v>0.1581589291029103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90309092321195561</c:v>
+                  <c:v>0.91693422079655174</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1865316947413067</c:v>
+                  <c:v>1.137340151780784</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.78111386067956912</c:v>
+                  <c:v>0.28713244116725206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.81353916847545515</c:v>
+                  <c:v>1.0673246226719935</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2772376896892368E-2</c:v>
+                  <c:v>1.0673755269240415</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3972650345258397</c:v>
+                  <c:v>0.44379383940490919</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77603085609025491</c:v>
+                  <c:v>0.52721073283444342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13570242017229711</c:v>
+                  <c:v>0.98975464325819118</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4196393984980509</c:v>
+                  <c:v>0.88859046034008737</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.93517844300827369</c:v>
+                  <c:v>1.377581204393606</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.17557082274155666</c:v>
+                  <c:v>1.2367943719119971</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.97171033368319704</c:v>
+                  <c:v>0.84850795732329898</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98043236620410923</c:v>
+                  <c:v>0.74820952452261102</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54616606818056268</c:v>
+                  <c:v>1.2924963999682086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4644114791836676</c:v>
+                  <c:v>1.2145877239018847</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98502724460536628</c:v>
+                  <c:v>1.3255467122177809</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.524275202177878E-2</c:v>
+                  <c:v>0.15234644597503438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.7916034289332166E-2</c:v>
+                  <c:v>0.85801579865197175</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.29904998995533277</c:v>
+                  <c:v>1.1179754272223021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16313512974780292</c:v>
+                  <c:v>1.0928620653381727</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4492902097669635</c:v>
+                  <c:v>0.9326599933051346</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.39304794533439635</c:v>
+                  <c:v>1.1095478275547692</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.93020631100055495</c:v>
+                  <c:v>0.85076258557457507</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.24068365433245681</c:v>
+                  <c:v>0.36460433136271297</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.25376614782086998</c:v>
+                  <c:v>0.36594002986318419</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.4180209147415548</c:v>
+                  <c:v>0.50081439677849715</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.4866680222953619</c:v>
+                  <c:v>0.9284384371166855</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4344094087323667</c:v>
+                  <c:v>0.67722914060749706</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.23631395051998683</c:v>
+                  <c:v>0.34634610849747427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3106095391964274</c:v>
+                  <c:v>1.2634277990573184</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1051998614615852</c:v>
+                  <c:v>0.79187606170184921</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4935102892470304</c:v>
+                  <c:v>0.41645497859048847</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.12277543910050676</c:v>
+                  <c:v>1.0551193586621554</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.50382787986312594</c:v>
+                  <c:v>1.4609485896323164</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.2627548650984075</c:v>
+                  <c:v>1.1227316397185718</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.96927058116083797</c:v>
+                  <c:v>0.71117317747052433</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.209494611471114</c:v>
+                  <c:v>1.3920215542117031</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6640331394395256E-2</c:v>
+                  <c:v>0.65141764688756032</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.418557955122778</c:v>
+                  <c:v>0.65762513599871286</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.61342840217885364</c:v>
+                  <c:v>1.4902212741302132</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.2344794778934249E-2</c:v>
+                  <c:v>0.86313976356165423</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.6480381430293352E-3</c:v>
+                  <c:v>0.64733217884456595</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8857210650219054</c:v>
+                  <c:v>0.46114712866970398</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.8678342867195588E-2</c:v>
+                  <c:v>1.0093773769068588</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.3780854531985263</c:v>
+                  <c:v>1.4456267912094019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.50370980379283625</c:v>
+                  <c:v>7.3983135988184845E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.4710958136914318E-2</c:v>
+                  <c:v>0.25312582229722291</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.36709283256219877</c:v>
+                  <c:v>0.83883138997611695</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.2439887397413891</c:v>
+                  <c:v>1.3945277255450286</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2264272144042796E-2</c:v>
+                  <c:v>3.4386565284032E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2606955819162227</c:v>
+                  <c:v>0.15819517649363074</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2640020563226726E-2</c:v>
+                  <c:v>0.35031828919152896</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4801194060037235</c:v>
+                  <c:v>1.0586967486436589</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.1918690245960883</c:v>
+                  <c:v>3.1488738926297666E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.2110302209746928</c:v>
+                  <c:v>6.1414193619995894E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.2572075383885011E-2</c:v>
+                  <c:v>0.95090709636504145</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.41902652388837214</c:v>
+                  <c:v>1.4783846265439453</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.32150585564715739</c:v>
+                  <c:v>0.3421211747527107</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.91200694719191555</c:v>
+                  <c:v>0.57151200497872168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15119946633427755</c:v>
+                  <c:v>2.6472486898583281E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.50443161098750089</c:v>
+                  <c:v>0.22931363819413708</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.33180172696372379</c:v>
+                  <c:v>1.0127557639975548</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.74901860925446928</c:v>
+                  <c:v>0.10309504086613558</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.2811808221211565</c:v>
+                  <c:v>1.3792331406962406</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.2457002040135789</c:v>
+                  <c:v>0.38818077248711536</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1792598309618429</c:v>
+                  <c:v>1.0939473730562272</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.9341015498950656E-2</c:v>
+                  <c:v>1.2789867768996133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.92548907530791669</c:v>
+                  <c:v>0.8266422893005847</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.7525855666147006E-2</c:v>
+                  <c:v>3.2246440478832461E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.0516323501182159</c:v>
+                  <c:v>0.86861713360362347</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.61820835380312755</c:v>
+                  <c:v>1.3895913302910909</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.2274104736285637</c:v>
+                  <c:v>0.35164438896065592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.47629454929025161</c:v>
+                  <c:v>4.9430977893774708E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.24934937650004418</c:v>
+                  <c:v>1.086657242155189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9201332609539628E-2</c:v>
+                  <c:v>1.3361024888311299</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.98107456238122204</c:v>
+                  <c:v>1.1032781728367733</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.460187022460518</c:v>
+                  <c:v>1.2662683836386674</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.99380541465237071</c:v>
+                  <c:v>4.540836911187035E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.89007448343082096</c:v>
+                  <c:v>1.0934982951374237</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.43106172004842824</c:v>
+                  <c:v>1.3175141699105413</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.41718072611541784</c:v>
+                  <c:v>1.0884154359925451</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0649265403173169</c:v>
+                  <c:v>1.1621111472228636</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.21942418457095136</c:v>
+                  <c:v>1.3553582768694148</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.93740719743939782</c:v>
+                  <c:v>0.11371778980557962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,511 +4189,511 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
                 <c:pt idx="0">
-                  <c:v>0.41313152020264843</c:v>
+                  <c:v>0.71117643844981071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0841552452416492</c:v>
+                  <c:v>1.4787863005019977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45170923827872572</c:v>
+                  <c:v>0.63371365489569942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81546891807299693</c:v>
+                  <c:v>1.3236453102340957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1189114243862703</c:v>
+                  <c:v>1.4272608263952109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64312580814140929</c:v>
+                  <c:v>1.225047061818628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46053405788936347</c:v>
+                  <c:v>1.3323081182806518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19748639895243469</c:v>
+                  <c:v>1.0878895105213362</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47170017269300707</c:v>
+                  <c:v>0.50853261475642864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88458046646810284</c:v>
+                  <c:v>0.59718179815383521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4348070961743034</c:v>
+                  <c:v>0.1940497051836258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52407431200805632</c:v>
+                  <c:v>0.67830788701636036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8024766321133809E-2</c:v>
+                  <c:v>0.84667667368802246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44117067018824258</c:v>
+                  <c:v>0.1657682639145926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3935805211876724</c:v>
+                  <c:v>9.1582319654012645E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1879735531767073</c:v>
+                  <c:v>0.9960846756496764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53350588377598429</c:v>
+                  <c:v>1.3190871625375133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1468211234772399</c:v>
+                  <c:v>1.3519211047502506</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.036884251937777E-2</c:v>
+                  <c:v>1.2419165348141439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82288364656613133</c:v>
+                  <c:v>0.87932317783306835</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67868478627752449</c:v>
+                  <c:v>0.55515016287766616</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.23518366164690829</c:v>
+                  <c:v>1.1322797968113036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3155868587408408</c:v>
+                  <c:v>1.4410721550473538</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95521071600085072</c:v>
+                  <c:v>0.3101232762781449</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3866116343907034</c:v>
+                  <c:v>1.1933071978871164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4427694364731551</c:v>
+                  <c:v>0.82744846136728822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.70234616748899836</c:v>
+                  <c:v>0.24013111727458192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9371074807716842E-2</c:v>
+                  <c:v>0.31550787450984608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4729477393714046</c:v>
+                  <c:v>1.4051758912433305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.14775167949764101</c:v>
+                  <c:v>0.51455036743106364</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52131166235104742</c:v>
+                  <c:v>1.1234420635858136</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.82734701127173593</c:v>
+                  <c:v>0.91287457108845071</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12589585804631509</c:v>
+                  <c:v>0.83154384917345625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.74007342230374351</c:v>
+                  <c:v>0.51666199198344476</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.84451022853950897</c:v>
+                  <c:v>0.57576977306974375</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17842695361885785</c:v>
+                  <c:v>5.7138708597642418E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.33084675696346905</c:v>
+                  <c:v>0.14527496494690223</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.1938182227798704E-3</c:v>
+                  <c:v>1.1910160123912559</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5513086972855652</c:v>
+                  <c:v>0.48509832919253681</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1442194087437043</c:v>
+                  <c:v>0.14482436742496951</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35034218445876503</c:v>
+                  <c:v>1.4176713842334405</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66300066858903939</c:v>
+                  <c:v>0.24168377684219722</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99580246184895915</c:v>
+                  <c:v>0.7214132039499116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12098714174925601</c:v>
+                  <c:v>0.58695166446948588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4691837406197983</c:v>
+                  <c:v>0.20417161307152965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.28380617986598966</c:v>
+                  <c:v>0.18884502996530872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.33034512416872119</c:v>
+                  <c:v>0.87256934590779101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.2489021993824987</c:v>
+                  <c:v>0.85054527568000293</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.70408970135368354</c:v>
+                  <c:v>0.36004941797442941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.076821164596397</c:v>
+                  <c:v>0.61193149715160122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.0422798265995177</c:v>
+                  <c:v>0.48547814970935382</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19542540617824816</c:v>
+                  <c:v>0.86679015204276877</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.27259100660928248</c:v>
+                  <c:v>0.1859897618116832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.449384833374846</c:v>
+                  <c:v>0.25736457201472435</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.17206878419125216</c:v>
+                  <c:v>1.3256648362967711</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22371391124160867</c:v>
+                  <c:v>0.71661934332309529</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3587267172783708</c:v>
+                  <c:v>1.3526368408685003</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52601268098955245</c:v>
+                  <c:v>0.70935004315446382</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0725426985964919</c:v>
+                  <c:v>1.3459432078971398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.39913821874137118</c:v>
+                  <c:v>0.485865993603736</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3950975614724073</c:v>
+                  <c:v>1.2995562078557401</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.33211569759929066</c:v>
+                  <c:v>1.2818557182801662</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.98729801017117991</c:v>
+                  <c:v>0.4616249226539364</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.62459708887737908</c:v>
+                  <c:v>0.64945448014679663</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3410288492317266</c:v>
+                  <c:v>1.1205666969056309</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.90462232233099615</c:v>
+                  <c:v>1.0406098270184982</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.27456307869537694</c:v>
+                  <c:v>1.4609707108956642</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.484500552268019</c:v>
+                  <c:v>0.75406612887627866</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1563156009135338</c:v>
+                  <c:v>1.0623053341094446</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.3084907370660774E-4</c:v>
+                  <c:v>0.63078567379252881</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.73847313893868771</c:v>
+                  <c:v>1.4724171143668046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.43795383434528051</c:v>
+                  <c:v>0.73733806676378921</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.17997157741989467</c:v>
+                  <c:v>5.5877294922940857E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8593570056477084E-2</c:v>
+                  <c:v>1.2799331586756657</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4394462458623782</c:v>
+                  <c:v>1.3721548967974202</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.8851098653009619E-2</c:v>
+                  <c:v>1.0339405591052493</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.35451910847868362</c:v>
+                  <c:v>1.0280589562666398</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.26995244897073795</c:v>
+                  <c:v>0.55135484363311349</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.74666631000166928</c:v>
+                  <c:v>0.75051400357697506</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1331002370326204</c:v>
+                  <c:v>0.90008037524005735</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8574709034244582</c:v>
+                  <c:v>1.2980688453519966</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.25722481647248513</c:v>
+                  <c:v>0.31638556805497642</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.48033364668916406</c:v>
+                  <c:v>1.1447891654177809</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.13810732323273217</c:v>
+                  <c:v>0.94295169039689575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.52928729071294134</c:v>
+                  <c:v>0.1581589291029103</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.90309092321195561</c:v>
+                  <c:v>0.91693422079655174</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1865316947413067</c:v>
+                  <c:v>1.137340151780784</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.78111386067956912</c:v>
+                  <c:v>0.28713244116725206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.81353916847545515</c:v>
+                  <c:v>1.0673246226719935</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2772376896892368E-2</c:v>
+                  <c:v>1.0673755269240415</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.3972650345258397</c:v>
+                  <c:v>0.44379383940490919</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77603085609025491</c:v>
+                  <c:v>0.52721073283444342</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.13570242017229711</c:v>
+                  <c:v>0.98975464325819118</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4196393984980509</c:v>
+                  <c:v>0.88859046034008737</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.93517844300827369</c:v>
+                  <c:v>1.377581204393606</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.17557082274155666</c:v>
+                  <c:v>1.2367943719119971</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.97171033368319704</c:v>
+                  <c:v>0.84850795732329898</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98043236620410923</c:v>
+                  <c:v>0.74820952452261102</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54616606818056268</c:v>
+                  <c:v>1.2924963999682086</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4644114791836676</c:v>
+                  <c:v>1.2145877239018847</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.98502724460536628</c:v>
+                  <c:v>1.3255467122177809</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.524275202177878E-2</c:v>
+                  <c:v>0.15234644597503438</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.7916034289332166E-2</c:v>
+                  <c:v>0.85801579865197175</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.29904998995533277</c:v>
+                  <c:v>1.1179754272223021</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16313512974780292</c:v>
+                  <c:v>1.0928620653381727</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4492902097669635</c:v>
+                  <c:v>0.9326599933051346</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.39304794533439635</c:v>
+                  <c:v>1.1095478275547692</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.93020631100055495</c:v>
+                  <c:v>0.85076258557457507</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.24068365433245681</c:v>
+                  <c:v>0.36460433136271297</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.25376614782086998</c:v>
+                  <c:v>0.36594002986318419</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.4180209147415548</c:v>
+                  <c:v>0.50081439677849715</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.4866680222953619</c:v>
+                  <c:v>0.9284384371166855</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.4344094087323667</c:v>
+                  <c:v>0.67722914060749706</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.23631395051998683</c:v>
+                  <c:v>0.34634610849747427</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.3106095391964274</c:v>
+                  <c:v>1.2634277990573184</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1051998614615852</c:v>
+                  <c:v>0.79187606170184921</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4935102892470304</c:v>
+                  <c:v>0.41645497859048847</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.12277543910050676</c:v>
+                  <c:v>1.0551193586621554</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.50382787986312594</c:v>
+                  <c:v>1.4609485896323164</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.2627548650984075</c:v>
+                  <c:v>1.1227316397185718</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.96927058116083797</c:v>
+                  <c:v>0.71117317747052433</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.209494611471114</c:v>
+                  <c:v>1.3920215542117031</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6640331394395256E-2</c:v>
+                  <c:v>0.65141764688756032</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.418557955122778</c:v>
+                  <c:v>0.65762513599871286</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.61342840217885364</c:v>
+                  <c:v>1.4902212741302132</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.2344794778934249E-2</c:v>
+                  <c:v>0.86313976356165423</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8.6480381430293352E-3</c:v>
+                  <c:v>0.64733217884456595</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8857210650219054</c:v>
+                  <c:v>0.46114712866970398</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.8678342867195588E-2</c:v>
+                  <c:v>1.0093773769068588</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.3780854531985263</c:v>
+                  <c:v>1.4456267912094019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.50370980379283625</c:v>
+                  <c:v>7.3983135988184845E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.4710958136914318E-2</c:v>
+                  <c:v>0.25312582229722291</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.36709283256219877</c:v>
+                  <c:v>0.83883138997611695</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.2439887397413891</c:v>
+                  <c:v>1.3945277255450286</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.2264272144042796E-2</c:v>
+                  <c:v>3.4386565284032E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.2606955819162227</c:v>
+                  <c:v>0.15819517649363074</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2640020563226726E-2</c:v>
+                  <c:v>0.35031828919152896</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.4801194060037235</c:v>
+                  <c:v>1.0586967486436589</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.1918690245960883</c:v>
+                  <c:v>3.1488738926297666E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.2110302209746928</c:v>
+                  <c:v>6.1414193619995894E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.2572075383885011E-2</c:v>
+                  <c:v>0.95090709636504145</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.41902652388837214</c:v>
+                  <c:v>1.4783846265439453</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.32150585564715739</c:v>
+                  <c:v>0.3421211747527107</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.91200694719191555</c:v>
+                  <c:v>0.57151200497872168</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.15119946633427755</c:v>
+                  <c:v>2.6472486898583281E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.50443161098750089</c:v>
+                  <c:v>0.22931363819413708</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.33180172696372379</c:v>
+                  <c:v>1.0127557639975548</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.74901860925446928</c:v>
+                  <c:v>0.10309504086613558</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1.2811808221211565</c:v>
+                  <c:v>1.3792331406962406</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.2457002040135789</c:v>
+                  <c:v>0.38818077248711536</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.1792598309618429</c:v>
+                  <c:v>1.0939473730562272</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>5.9341015498950656E-2</c:v>
+                  <c:v>1.2789867768996133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.92548907530791669</c:v>
+                  <c:v>0.8266422893005847</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.7525855666147006E-2</c:v>
+                  <c:v>3.2246440478832461E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.0516323501182159</c:v>
+                  <c:v>0.86861713360362347</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.61820835380312755</c:v>
+                  <c:v>1.3895913302910909</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.2274104736285637</c:v>
+                  <c:v>0.35164438896065592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.47629454929025161</c:v>
+                  <c:v>4.9430977893774708E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.24934937650004418</c:v>
+                  <c:v>1.086657242155189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.9201332609539628E-2</c:v>
+                  <c:v>1.3361024888311299</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.98107456238122204</c:v>
+                  <c:v>1.1032781728367733</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.460187022460518</c:v>
+                  <c:v>1.2662683836386674</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.99380541465237071</c:v>
+                  <c:v>4.540836911187035E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.89007448343082096</c:v>
+                  <c:v>1.0934982951374237</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.43106172004842824</c:v>
+                  <c:v>1.3175141699105413</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.41718072611541784</c:v>
+                  <c:v>1.0884154359925451</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.0649265403173169</c:v>
+                  <c:v>1.1621111472228636</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.21942418457095136</c:v>
+                  <c:v>1.3553582768694148</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.93740719743939782</c:v>
+                  <c:v>0.11371778980557962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4708,11 +4708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-610283184"/>
-        <c:axId val="-610292976"/>
+        <c:axId val="382576000"/>
+        <c:axId val="382587968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-610283184"/>
+        <c:axId val="382576000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,12 +4769,12 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-610292976"/>
+        <c:crossAx val="382587968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-610292976"/>
+        <c:axId val="382587968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4831,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-610283184"/>
+        <c:crossAx val="382576000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6386,15 +6386,15 @@
       </c>
       <c r="B2">
         <f ca="1">RAND()*(1.5-0)+0</f>
-        <v>0.41313152020264843</v>
+        <v>0.71117643844981071</v>
       </c>
       <c r="C2">
         <f ca="1">RAND()*(1.5-0)+0</f>
-        <v>9.4498565525198641E-2</v>
+        <v>1.3449334704376859</v>
       </c>
       <c r="D2">
         <f ca="1">B2</f>
-        <v>0.41313152020264843</v>
+        <v>0.71117643844981071</v>
       </c>
       <c r="E2">
         <f>IF(D1&gt;=C1,1,0)*IF(B1&lt;=1,1,0)</f>
@@ -6407,19 +6407,19 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:C22" ca="1" si="0">RAND()*(1.5-0)+0</f>
-        <v>1.0841552452416492</v>
+        <v>1.4787863005019977</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8783904882185849E-2</v>
+        <v>0.62846457168288239</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D21" ca="1" si="1">B3</f>
-        <v>1.0841552452416492</v>
+        <v>1.4787863005019977</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" ca="1" si="2">IF(D2&gt;=C2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6428,15 +6428,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45170923827872572</v>
+        <v>0.63371365489569942</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19046047985222953</v>
+        <v>0.78432093006928427</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45170923827872572</v>
+        <v>0.63371365489569942</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
@@ -6449,19 +6449,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81546891807299693</v>
+        <v>1.3236453102340957</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.31327086433053</v>
+        <v>1.037055195245721</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81546891807299693</v>
+        <v>1.3236453102340957</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6470,15 +6470,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1189114243862703</v>
+        <v>1.4272608263952109</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46907074118319358</v>
+        <v>1.2918149880277634</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1189114243862703</v>
+        <v>1.4272608263952109</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6" ca="1" si="3">IF(D5&gt;=C5,1,0)*IF(B5&lt;=1,1,0)</f>
@@ -6491,15 +6491,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64312580814140929</v>
+        <v>1.225047061818628</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.007411374379827</v>
+        <v>9.609580266034673E-2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64312580814140929</v>
+        <v>1.225047061818628</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
@@ -6512,19 +6512,19 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46053405788936347</v>
+        <v>1.3323081182806518</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37481278530928847</v>
+        <v>1.4350948597178879</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46053405788936347</v>
+        <v>1.3323081182806518</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6533,19 +6533,19 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19748639895243469</v>
+        <v>1.0878895105213362</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34651375331676409</v>
+        <v>1.4467935171479991</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19748639895243469</v>
+        <v>1.0878895105213362</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
@@ -6557,15 +6557,15 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47170017269300707</v>
+        <v>0.50853261475642864</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9037592954160294</v>
+        <v>0.74503366114893455</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47170017269300707</v>
+        <v>0.50853261475642864</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10" ca="1" si="4">IF(D9&gt;=C9,1,0)*IF(B9&lt;=1,1,0)</f>
@@ -6578,15 +6578,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88458046646810284</v>
+        <v>0.59718179815383521</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38492379442496377</v>
+        <v>1.0075572855604833</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88458046646810284</v>
+        <v>0.59718179815383521</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
@@ -6599,19 +6599,19 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4348070961743034</v>
+        <v>0.1940497051836258</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72419439423712562</v>
+        <v>1.2493494776764984</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4348070961743034</v>
+        <v>0.1940497051836258</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6620,19 +6620,19 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52407431200805632</v>
+        <v>0.67830788701636036</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36376254454056306</v>
+        <v>0.84446029649182208</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52407431200805632</v>
+        <v>0.67830788701636036</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6641,19 +6641,19 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8024766321133809E-2</v>
+        <v>0.84667667368802246</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46154336910423949</v>
+        <v>0.52825370591469345</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8024766321133809E-2</v>
+        <v>0.84667667368802246</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14" ca="1" si="5">IF(D13&gt;=C13,1,0)*IF(B13&lt;=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6662,19 +6662,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44117067018824258</v>
+        <v>0.1657682639145926</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3066005829270186</v>
+        <v>0.9341004409580268</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44117067018824258</v>
+        <v>0.1657682639145926</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6683,15 +6683,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3935805211876724</v>
+        <v>9.1582319654012645E-2</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7504408274965992E-2</v>
+        <v>0.9932669572027224</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3935805211876724</v>
+        <v>9.1582319654012645E-2</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
@@ -6704,19 +6704,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1879735531767073</v>
+        <v>0.9960846756496764</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13180230731423898</v>
+        <v>0.98494236294716719</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1879735531767073</v>
+        <v>0.9960846756496764</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,19 +6725,19 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53350588377598429</v>
+        <v>1.3190871625375133</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.296555624670634</v>
+        <v>1.3990790479871129</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53350588377598429</v>
+        <v>1.3190871625375133</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18" ca="1" si="6">IF(D17&gt;=C17,1,0)*IF(B17&lt;=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6746,15 +6746,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1468211234772399</v>
+        <v>1.3519211047502506</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3502070131957125</v>
+        <v>1.4663285713122058</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1468211234772399</v>
+        <v>1.3519211047502506</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
@@ -6767,15 +6767,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>3.036884251937777E-2</v>
+        <v>1.2419165348141439</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77116088509542591</v>
+        <v>1.4287061367266665</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.036884251937777E-2</v>
+        <v>1.2419165348141439</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
@@ -6788,15 +6788,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82288364656613133</v>
+        <v>0.87932317783306835</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30782217818358404</v>
+        <v>0.43822251016977387</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82288364656613133</v>
+        <v>0.87932317783306835</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
@@ -6809,15 +6809,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67868478627752449</v>
+        <v>0.55515016287766616</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.038824119862223</v>
+        <v>1.1591828441372427</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D85" ca="1" si="7">B22</f>
-        <v>0.67868478627752449</v>
+        <v>0.55515016287766616</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:E85" ca="1" si="8">IF(D21&gt;=C21,1,0)</f>
@@ -6830,15 +6830,15 @@
       </c>
       <c r="B23">
         <f t="shared" ref="B23:C86" ca="1" si="9">RAND()*(1.5-0)+0</f>
-        <v>0.23518366164690829</v>
+        <v>1.1322797968113036</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4855442505787453</v>
+        <v>3.0728430288837094E-2</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.23518366164690829</v>
+        <v>1.1322797968113036</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="8"/>
@@ -6851,19 +6851,19 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3155868587408408</v>
+        <v>1.4410721550473538</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1997974709501293</v>
+        <v>1.4996678908329031</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3155868587408408</v>
+        <v>1.4410721550473538</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6872,19 +6872,19 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.95521071600085072</v>
+        <v>0.3101232762781449</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50434648649215374</v>
+        <v>0.36616985326698653</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95521071600085072</v>
+        <v>0.3101232762781449</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -6893,19 +6893,19 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3866116343907034</v>
+        <v>1.1933071978871164</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80475602904320598</v>
+        <v>6.5321978980364848E-2</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3866116343907034</v>
+        <v>1.1933071978871164</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6914,19 +6914,19 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4427694364731551</v>
+        <v>0.82744846136728822</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59236782029441826</v>
+        <v>0.6399099154097494</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4427694364731551</v>
+        <v>0.82744846136728822</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6935,15 +6935,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70234616748899836</v>
+        <v>0.24013111727458192</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0705241838567168</v>
+        <v>0.47825753231747653</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.70234616748899836</v>
+        <v>0.24013111727458192</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="8"/>
@@ -6956,15 +6956,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9371074807716842E-2</v>
+        <v>0.31550787450984608</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1934714531897748</v>
+        <v>0.93064278843578907</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>9.9371074807716842E-2</v>
+        <v>0.31550787450984608</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="8"/>
@@ -6977,15 +6977,15 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4729477393714046</v>
+        <v>1.4051758912433305</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28099858277693063</v>
+        <v>9.3623992573203196E-2</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4729477393714046</v>
+        <v>1.4051758912433305</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="8"/>
@@ -6998,15 +6998,15 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14775167949764101</v>
+        <v>0.51455036743106364</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44729710747859563</v>
+        <v>0.36052868015657308</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14775167949764101</v>
+        <v>0.51455036743106364</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="8"/>
@@ -7019,19 +7019,19 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52131166235104742</v>
+        <v>1.1234420635858136</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1983948479254485</v>
+        <v>0.96705765094097607</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>0.52131166235104742</v>
+        <v>1.1234420635858136</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7040,19 +7040,19 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="9"/>
-        <v>0.82734701127173593</v>
+        <v>0.91287457108845071</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13950650753005345</v>
+        <v>1.3324428425426598</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>0.82734701127173593</v>
+        <v>0.91287457108845071</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,19 +7061,19 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12589585804631509</v>
+        <v>0.83154384917345625</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97426576468184656</v>
+        <v>0.69563623443023792</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12589585804631509</v>
+        <v>0.83154384917345625</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -7082,19 +7082,19 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74007342230374351</v>
+        <v>0.51666199198344476</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4812298188975377</v>
+        <v>0.41758414017590628</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74007342230374351</v>
+        <v>0.51666199198344476</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -7103,19 +7103,19 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="9"/>
-        <v>0.84451022853950897</v>
+        <v>0.57576977306974375</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="9"/>
-        <v>0.75569716491154504</v>
+        <v>9.3883442106605264E-2</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84451022853950897</v>
+        <v>0.57576977306974375</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -7124,15 +7124,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17842695361885785</v>
+        <v>5.7138708597642418E-2</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80882992671046683</v>
+        <v>0.42367595100225558</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17842695361885785</v>
+        <v>5.7138708597642418E-2</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="8"/>
@@ -7145,15 +7145,15 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33084675696346905</v>
+        <v>0.14527496494690223</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3864109297607024</v>
+        <v>0.55396850464157366</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33084675696346905</v>
+        <v>0.14527496494690223</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="8"/>
@@ -7166,15 +7166,15 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1938182227798704E-3</v>
+        <v>1.1910160123912559</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="9"/>
-        <v>1.23667421406088</v>
+        <v>1.3055135479419866</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1938182227798704E-3</v>
+        <v>1.1910160123912559</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="8"/>
@@ -7187,15 +7187,15 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5513086972855652</v>
+        <v>0.48509832919253681</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2469722765691189</v>
+        <v>0.49090126353939068</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5513086972855652</v>
+        <v>0.48509832919253681</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="8"/>
@@ -7208,15 +7208,15 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1442194087437043</v>
+        <v>0.14482436742496951</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59569109807644449</v>
+        <v>0.82410603257114612</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1442194087437043</v>
+        <v>0.14482436742496951</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="8"/>
@@ -7229,19 +7229,19 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35034218445876503</v>
+        <v>1.4176713842334405</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2399469257810527E-2</v>
+        <v>5.4939613505494478E-2</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35034218445876503</v>
+        <v>1.4176713842334405</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -7250,15 +7250,15 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="9"/>
-        <v>0.66300066858903939</v>
+        <v>0.24168377684219722</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59622101896602597</v>
+        <v>0.76618419604250576</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>0.66300066858903939</v>
+        <v>0.24168377684219722</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="8"/>
@@ -7271,19 +7271,19 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="9"/>
-        <v>0.99580246184895915</v>
+        <v>0.7214132039499116</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43122820527989264</v>
+        <v>0.61865324705438818</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>0.99580246184895915</v>
+        <v>0.7214132039499116</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -7292,15 +7292,15 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12098714174925601</v>
+        <v>0.58695166446948588</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60010847860449523</v>
+        <v>1.3237687024537168</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12098714174925601</v>
+        <v>0.58695166446948588</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="8"/>
@@ -7313,15 +7313,15 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4691837406197983</v>
+        <v>0.20417161307152965</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8665825628156003E-2</v>
+        <v>0.29363895730252304</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4691837406197983</v>
+        <v>0.20417161307152965</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="8"/>
@@ -7334,19 +7334,19 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28380617986598966</v>
+        <v>0.18884502996530872</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11358481976461277</v>
+        <v>8.3454156809513735E-3</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28380617986598966</v>
+        <v>0.18884502996530872</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -7355,15 +7355,15 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33034512416872119</v>
+        <v>0.87256934590779101</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32776285077269934</v>
+        <v>0.42508449985587377</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33034512416872119</v>
+        <v>0.87256934590779101</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="8"/>
@@ -7376,15 +7376,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2489021993824987</v>
+        <v>0.85054527568000293</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3517169365746793</v>
+        <v>7.9807987756513266E-2</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2489021993824987</v>
+        <v>0.85054527568000293</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="8"/>
@@ -7397,19 +7397,19 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70408970135368354</v>
+        <v>0.36004941797442941</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47335858491974858</v>
+        <v>0.56937782701816508</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.70408970135368354</v>
+        <v>0.36004941797442941</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -7418,19 +7418,19 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="9"/>
-        <v>1.076821164596397</v>
+        <v>0.61193149715160122</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2433540793512878</v>
+        <v>1.0904246373777857</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>1.076821164596397</v>
+        <v>0.61193149715160122</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0422798265995177</v>
+        <v>0.48547814970935382</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2714467243874865</v>
+        <v>0.345889712334362</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0422798265995177</v>
+        <v>0.48547814970935382</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="8"/>
@@ -7460,19 +7460,19 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19542540617824816</v>
+        <v>0.86679015204276877</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3785247626266919</v>
+        <v>0.18976093423883944</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19542540617824816</v>
+        <v>0.86679015204276877</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -7481,19 +7481,19 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27259100660928248</v>
+        <v>0.1859897618116832</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20621021669552553</v>
+        <v>0.27800981298701749</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27259100660928248</v>
+        <v>0.1859897618116832</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -7502,19 +7502,19 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="9"/>
-        <v>1.449384833374846</v>
+        <v>0.25736457201472435</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2446998530750544</v>
+        <v>0.835720851541087</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>1.449384833374846</v>
+        <v>0.25736457201472435</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -7523,19 +7523,19 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17206878419125216</v>
+        <v>1.3256648362967711</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4852222652064813</v>
+        <v>1.1932717694446937</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17206878419125216</v>
+        <v>1.3256648362967711</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -7544,19 +7544,19 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22371391124160867</v>
+        <v>0.71661934332309529</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6613646790986747E-2</v>
+        <v>1.2655381110733541</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22371391124160867</v>
+        <v>0.71661934332309529</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,19 +7565,19 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3587267172783708</v>
+        <v>1.3526368408685003</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="9"/>
-        <v>0.58756531948316315</v>
+        <v>2.1707332327638162E-2</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3587267172783708</v>
+        <v>1.3526368408685003</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -7586,15 +7586,15 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52601268098955245</v>
+        <v>0.70935004315446382</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="9"/>
-        <v>1.374754760462106</v>
+        <v>0.99052367216140236</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>0.52601268098955245</v>
+        <v>0.70935004315446382</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="8"/>
@@ -7607,15 +7607,15 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0725426985964919</v>
+        <v>1.3459432078971398</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="9"/>
-        <v>1.391791105895295</v>
+        <v>0.49771596977258498</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0725426985964919</v>
+        <v>1.3459432078971398</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="8"/>
@@ -7628,19 +7628,19 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="9"/>
-        <v>0.39913821874137118</v>
+        <v>0.485865993603736</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50978028274337606</v>
+        <v>0.78464806333299619</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39913821874137118</v>
+        <v>0.485865993603736</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -7649,15 +7649,15 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3950975614724073</v>
+        <v>1.2995562078557401</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="9"/>
-        <v>0.91375958093420595</v>
+        <v>2.8191585549317666E-2</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3950975614724073</v>
+        <v>1.2995562078557401</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="8"/>
@@ -7670,15 +7670,15 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33211569759929066</v>
+        <v>1.2818557182801662</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59047039946953384</v>
+        <v>0.81851301153866396</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33211569759929066</v>
+        <v>1.2818557182801662</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="8"/>
@@ -7691,19 +7691,19 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="9"/>
-        <v>0.98729801017117991</v>
+        <v>0.4616249226539364</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0043416297530103</v>
+        <v>0.55255555930254352</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98729801017117991</v>
+        <v>0.4616249226539364</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -7712,15 +7712,15 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="9"/>
-        <v>0.62459708887737908</v>
+        <v>0.64945448014679663</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0651829841715363E-2</v>
+        <v>5.3298514790335705E-2</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62459708887737908</v>
+        <v>0.64945448014679663</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="8"/>
@@ -7733,15 +7733,15 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3410288492317266</v>
+        <v>1.1205666969056309</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3014155504936802E-2</v>
+        <v>0.7196588114759821</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3410288492317266</v>
+        <v>1.1205666969056309</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="8"/>
@@ -7754,15 +7754,15 @@
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="9"/>
-        <v>0.90462232233099615</v>
+        <v>1.0406098270184982</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="9"/>
-        <v>0.82491535832809104</v>
+        <v>0.4138140862633195</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.90462232233099615</v>
+        <v>1.0406098270184982</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="8"/>
@@ -7775,15 +7775,15 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27456307869537694</v>
+        <v>1.4609707108956642</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2993483231470768</v>
+        <v>0.59850049771294667</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27456307869537694</v>
+        <v>1.4609707108956642</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="8"/>
@@ -7796,19 +7796,19 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="9"/>
-        <v>1.484500552268019</v>
+        <v>0.75406612887627866</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54675733957078698</v>
+        <v>0.84947135428224685</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>1.484500552268019</v>
+        <v>0.75406612887627866</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -7817,19 +7817,19 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1563156009135338</v>
+        <v>1.0623053341094446</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="9"/>
-        <v>0.71189785310884779</v>
+        <v>0.17554972580576067</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1563156009135338</v>
+        <v>1.0623053341094446</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -7838,15 +7838,15 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3084907370660774E-4</v>
+        <v>0.63078567379252881</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29309795090274399</v>
+        <v>1.1566150302709466</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3084907370660774E-4</v>
+        <v>0.63078567379252881</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="8"/>
@@ -7859,15 +7859,15 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="9"/>
-        <v>0.73847313893868771</v>
+        <v>1.4724171143668046</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="9"/>
-        <v>0.91450924239376119</v>
+        <v>2.3537529023515247E-2</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73847313893868771</v>
+        <v>1.4724171143668046</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="8"/>
@@ -7880,19 +7880,19 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43795383434528051</v>
+        <v>0.73733806676378921</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3388355533399463</v>
+        <v>1.3293583436981276</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43795383434528051</v>
+        <v>0.73733806676378921</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -7901,15 +7901,15 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17997157741989467</v>
+        <v>5.5877294922940857E-2</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54228390045586672</v>
+        <v>1.0726706658272533</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17997157741989467</v>
+        <v>5.5877294922940857E-2</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="8"/>
@@ -7922,15 +7922,15 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8593570056477084E-2</v>
+        <v>1.2799331586756657</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="9"/>
-        <v>0.879910305042791</v>
+        <v>0.26860159027550601</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>5.8593570056477084E-2</v>
+        <v>1.2799331586756657</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="8"/>
@@ -7943,19 +7943,19 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4394462458623782</v>
+        <v>1.3721548967974202</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42240289981134582</v>
+        <v>0.81410934940138102</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4394462458623782</v>
+        <v>1.3721548967974202</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -7964,15 +7964,15 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="9"/>
-        <v>3.8851098653009619E-2</v>
+        <v>1.0339405591052493</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="9"/>
-        <v>0.63773855356140341</v>
+        <v>1.4483879390468011</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>3.8851098653009619E-2</v>
+        <v>1.0339405591052493</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="8"/>
@@ -7985,15 +7985,15 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35451910847868362</v>
+        <v>1.0280589562666398</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55865387774357211</v>
+        <v>0.57965427069288744</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35451910847868362</v>
+        <v>1.0280589562666398</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="8"/>
@@ -8006,19 +8006,19 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26995244897073795</v>
+        <v>0.55135484363311349</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57874714226103907</v>
+        <v>0.36148605185507743</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26995244897073795</v>
+        <v>0.55135484363311349</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8027,19 +8027,19 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74666631000166928</v>
+        <v>0.75051400357697506</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57623369752623155</v>
+        <v>0.45474776511624948</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74666631000166928</v>
+        <v>0.75051400357697506</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8048,15 +8048,15 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1331002370326204</v>
+        <v>0.90008037524005735</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6945872860139088E-2</v>
+        <v>1.2396147002352809</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1331002370326204</v>
+        <v>0.90008037524005735</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="8"/>
@@ -8069,19 +8069,19 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8574709034244582</v>
+        <v>1.2980688453519966</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21147646077327936</v>
+        <v>0.94372007077291076</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8574709034244582</v>
+        <v>1.2980688453519966</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -8090,15 +8090,15 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25722481647248513</v>
+        <v>0.31638556805497642</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="9"/>
-        <v>1.141226077149049</v>
+        <v>0.83390198912995572</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25722481647248513</v>
+        <v>0.31638556805497642</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="8"/>
@@ -8111,15 +8111,15 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48033364668916406</v>
+        <v>1.1447891654177809</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4352745052419935</v>
+        <v>1.9511330210150946E-2</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48033364668916406</v>
+        <v>1.1447891654177809</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="8"/>
@@ -8132,19 +8132,19 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13810732323273217</v>
+        <v>0.94295169039689575</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2734017692953183</v>
+        <v>1.2730038944952708</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>0.13810732323273217</v>
+        <v>0.94295169039689575</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -8153,15 +8153,15 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52928729071294134</v>
+        <v>0.1581589291029103</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="9"/>
-        <v>0.82592151048877716</v>
+        <v>0.7702502291585831</v>
       </c>
       <c r="D86">
         <f t="shared" ref="D86:D149" ca="1" si="10">B86</f>
-        <v>0.52928729071294134</v>
+        <v>0.1581589291029103</v>
       </c>
       <c r="E86">
         <f t="shared" ref="E86:E149" ca="1" si="11">IF(D85&gt;=C85,1,0)</f>
@@ -8174,15 +8174,15 @@
       </c>
       <c r="B87">
         <f t="shared" ref="B87:C150" ca="1" si="12">RAND()*(1.5-0)+0</f>
-        <v>0.90309092321195561</v>
+        <v>0.91693422079655174</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3477411698217119</v>
+        <v>1.0627226275537056</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="10"/>
-        <v>0.90309092321195561</v>
+        <v>0.91693422079655174</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="11"/>
@@ -8195,15 +8195,15 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1865316947413067</v>
+        <v>1.137340151780784</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3393113646486694</v>
+        <v>0.36888141642743472</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1865316947413067</v>
+        <v>1.137340151780784</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="11"/>
@@ -8216,19 +8216,19 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="12"/>
-        <v>0.78111386067956912</v>
+        <v>0.28713244116725206</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>0.724699335024513</v>
+        <v>0.49762230876167912</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="10"/>
-        <v>0.78111386067956912</v>
+        <v>0.28713244116725206</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -8237,19 +8237,19 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="12"/>
-        <v>0.81353916847545515</v>
+        <v>1.0673246226719935</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2500050036804176</v>
+        <v>0.90567990262001907</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="10"/>
-        <v>0.81353916847545515</v>
+        <v>1.0673246226719935</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -8258,19 +8258,19 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2772376896892368E-2</v>
+        <v>1.0673755269240415</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>0.72885957527184109</v>
+        <v>0.64806722479528134</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2772376896892368E-2</v>
+        <v>1.0673755269240415</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -8279,19 +8279,19 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3972650345258397</v>
+        <v>0.44379383940490919</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>1.319610905400638</v>
+        <v>2.7567088199644096E-2</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3972650345258397</v>
+        <v>0.44379383940490919</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -8300,15 +8300,15 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="12"/>
-        <v>0.77603085609025491</v>
+        <v>0.52721073283444342</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>0.59284162399001294</v>
+        <v>0.17775501464169313</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="10"/>
-        <v>0.77603085609025491</v>
+        <v>0.52721073283444342</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="11"/>
@@ -8321,15 +8321,15 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="12"/>
-        <v>0.13570242017229711</v>
+        <v>0.98975464325819118</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>3.3369620487239238E-2</v>
+        <v>0.11514294217298165</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="10"/>
-        <v>0.13570242017229711</v>
+        <v>0.98975464325819118</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="11"/>
@@ -8342,15 +8342,15 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4196393984980509</v>
+        <v>0.88859046034008737</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0164911693241276</v>
+        <v>0.17389320140255782</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4196393984980509</v>
+        <v>0.88859046034008737</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="11"/>
@@ -8363,15 +8363,15 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="12"/>
-        <v>0.93517844300827369</v>
+        <v>1.377581204393606</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2489175264275632</v>
+        <v>1.1867719629783675</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93517844300827369</v>
+        <v>1.377581204393606</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="11"/>
@@ -8384,19 +8384,19 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17557082274155666</v>
+        <v>1.2367943719119971</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21967524756702167</v>
+        <v>0.300652409532356</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17557082274155666</v>
+        <v>1.2367943719119971</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,19 +8405,19 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="12"/>
-        <v>0.97171033368319704</v>
+        <v>0.84850795732329898</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>0.10649619855849751</v>
+        <v>0.29083196553619961</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="10"/>
-        <v>0.97171033368319704</v>
+        <v>0.84850795732329898</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -8426,15 +8426,15 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="12"/>
-        <v>0.98043236620410923</v>
+        <v>0.74820952452261102</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1554208574983296</v>
+        <v>0.2830025549018011</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="10"/>
-        <v>0.98043236620410923</v>
+        <v>0.74820952452261102</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="11"/>
@@ -8447,19 +8447,19 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="12"/>
-        <v>0.54616606818056268</v>
+        <v>1.2924963999682086</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>0.83595723362649621</v>
+        <v>1.2585376015668783</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54616606818056268</v>
+        <v>1.2924963999682086</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -8468,19 +8468,19 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="12"/>
-        <v>0.4644114791836676</v>
+        <v>1.2145877239018847</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27867794279538832</v>
+        <v>1.2113036281714047</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4644114791836676</v>
+        <v>1.2145877239018847</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -8489,15 +8489,15 @@
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="12"/>
-        <v>0.98502724460536628</v>
+        <v>1.3255467122177809</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38451014442991072</v>
+        <v>1.4356009706897093</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="10"/>
-        <v>0.98502724460536628</v>
+        <v>1.3255467122177809</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="11"/>
@@ -8510,19 +8510,19 @@
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="12"/>
-        <v>2.524275202177878E-2</v>
+        <v>0.15234644597503438</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="12"/>
-        <v>0.56958075229543081</v>
+        <v>0.42747737882394388</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="10"/>
-        <v>2.524275202177878E-2</v>
+        <v>0.15234644597503438</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -8531,15 +8531,15 @@
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="12"/>
-        <v>4.7916034289332166E-2</v>
+        <v>0.85801579865197175</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27159976498976796</v>
+        <v>0.71691365955580177</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="10"/>
-        <v>4.7916034289332166E-2</v>
+        <v>0.85801579865197175</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="11"/>
@@ -8552,19 +8552,19 @@
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="12"/>
-        <v>0.29904998995533277</v>
+        <v>1.1179754272223021</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="12"/>
-        <v>0.55602235560394964</v>
+        <v>0.63947458737563312</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="10"/>
-        <v>0.29904998995533277</v>
+        <v>1.1179754272223021</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -8573,19 +8573,19 @@
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16313512974780292</v>
+        <v>1.0928620653381727</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="12"/>
-        <v>0.16298995673791139</v>
+        <v>0.1019072353347954</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16313512974780292</v>
+        <v>1.0928620653381727</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -8594,15 +8594,15 @@
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4492902097669635</v>
+        <v>0.9326599933051346</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38513489596603917</v>
+        <v>0.58178107413419311</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4492902097669635</v>
+        <v>0.9326599933051346</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="11"/>
@@ -8615,15 +8615,15 @@
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39304794533439635</v>
+        <v>1.1095478275547692</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="12"/>
-        <v>0.83081013021799055</v>
+        <v>1.0631177978894604</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="10"/>
-        <v>0.39304794533439635</v>
+        <v>1.1095478275547692</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="11"/>
@@ -8636,19 +8636,19 @@
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="12"/>
-        <v>0.93020631100055495</v>
+        <v>0.85076258557457507</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="12"/>
-        <v>0.69816749964332114</v>
+        <v>0.67131479731092969</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93020631100055495</v>
+        <v>0.85076258557457507</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -8657,15 +8657,15 @@
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24068365433245681</v>
+        <v>0.36460433136271297</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="12"/>
-        <v>0.58068186088661577</v>
+        <v>0.96516715136785491</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24068365433245681</v>
+        <v>0.36460433136271297</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="11"/>
@@ -8678,15 +8678,15 @@
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25376614782086998</v>
+        <v>0.36594002986318419</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2339488370185561</v>
+        <v>1.0266493993843131</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="10"/>
-        <v>0.25376614782086998</v>
+        <v>0.36594002986318419</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="11"/>
@@ -8699,15 +8699,15 @@
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4180209147415548</v>
+        <v>0.50081439677849715</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0100602905161282</v>
+        <v>1.2869637300530319</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4180209147415548</v>
+        <v>0.50081439677849715</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="11"/>
@@ -8720,19 +8720,19 @@
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4866680222953619</v>
+        <v>0.9284384371166855</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1601995097971569</v>
+        <v>0.58827910587981491</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4866680222953619</v>
+        <v>0.9284384371166855</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -8741,15 +8741,15 @@
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4344094087323667</v>
+        <v>0.67722914060749706</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="12"/>
-        <v>0.23987066085607656</v>
+        <v>0.87709567867859128</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4344094087323667</v>
+        <v>0.67722914060749706</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="11"/>
@@ -8762,19 +8762,19 @@
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="12"/>
-        <v>0.23631395051998683</v>
+        <v>0.34634610849747427</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15967074543567072</v>
+        <v>0.37353448183401378</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="10"/>
-        <v>0.23631395051998683</v>
+        <v>0.34634610849747427</v>
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -8783,19 +8783,19 @@
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3106095391964274</v>
+        <v>1.2634277990573184</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="12"/>
-        <v>0.99463761563343245</v>
+        <v>1.2444064926791309</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3106095391964274</v>
+        <v>1.2634277990573184</v>
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -8804,15 +8804,15 @@
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1051998614615852</v>
+        <v>0.79187606170184921</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1137627578519882</v>
+        <v>1.449668941971137</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1051998614615852</v>
+        <v>0.79187606170184921</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="11"/>
@@ -8825,15 +8825,15 @@
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4935102892470304</v>
+        <v>0.41645497859048847</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0756436536308598</v>
+        <v>1.1163648176298433</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4935102892470304</v>
+        <v>0.41645497859048847</v>
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="11"/>
@@ -8846,19 +8846,19 @@
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="12"/>
-        <v>0.12277543910050676</v>
+        <v>1.0551193586621554</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="12"/>
-        <v>0.89026459173020611</v>
+        <v>0.68992913284087742</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12277543910050676</v>
+        <v>1.0551193586621554</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -8867,19 +8867,19 @@
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="12"/>
-        <v>0.50382787986312594</v>
+        <v>1.4609485896323164</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2696652367629986</v>
+        <v>8.4090097737151037E-2</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50382787986312594</v>
+        <v>1.4609485896323164</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -8888,19 +8888,19 @@
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2627548650984075</v>
+        <v>1.1227316397185718</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2236490122868073E-2</v>
+        <v>0.92756603443346808</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2627548650984075</v>
+        <v>1.1227316397185718</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -8909,15 +8909,15 @@
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="12"/>
-        <v>0.96927058116083797</v>
+        <v>0.71117317747052433</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1534077598930881</v>
+        <v>0.757746776453184</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="10"/>
-        <v>0.96927058116083797</v>
+        <v>0.71117317747052433</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="11"/>
@@ -8930,15 +8930,15 @@
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="12"/>
-        <v>1.209494611471114</v>
+        <v>1.3920215542117031</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="12"/>
-        <v>0.13563611203044285</v>
+        <v>0.12533286571588498</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="10"/>
-        <v>1.209494611471114</v>
+        <v>1.3920215542117031</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="11"/>
@@ -8951,15 +8951,15 @@
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="12"/>
-        <v>2.6640331394395256E-2</v>
+        <v>0.65141764688756032</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="12"/>
-        <v>0.74576628425633151</v>
+        <v>1.18075062966428</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6640331394395256E-2</v>
+        <v>0.65141764688756032</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="11"/>
@@ -8972,15 +8972,15 @@
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="12"/>
-        <v>1.418557955122778</v>
+        <v>0.65762513599871286</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="12"/>
-        <v>4.4111913321734419E-2</v>
+        <v>0.21561447975909181</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="10"/>
-        <v>1.418557955122778</v>
+        <v>0.65762513599871286</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="11"/>
@@ -8993,15 +8993,15 @@
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="12"/>
-        <v>0.61342840217885364</v>
+        <v>1.4902212741302132</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3104661112975671</v>
+        <v>0.50533984183722935</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61342840217885364</v>
+        <v>1.4902212741302132</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="11"/>
@@ -9014,19 +9014,19 @@
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="12"/>
-        <v>8.2344794778934249E-2</v>
+        <v>0.86313976356165423</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1568813405636118</v>
+        <v>1.2113797081297162</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2344794778934249E-2</v>
+        <v>0.86313976356165423</v>
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -9035,15 +9035,15 @@
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="12"/>
-        <v>8.6480381430293352E-3</v>
+        <v>0.64733217884456595</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="12"/>
-        <v>0.98066185913224957</v>
+        <v>1.1826269634718403</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="10"/>
-        <v>8.6480381430293352E-3</v>
+        <v>0.64733217884456595</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="11"/>
@@ -9056,15 +9056,15 @@
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8857210650219054</v>
+        <v>0.46114712866970398</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="12"/>
-        <v>0.91819186050649981</v>
+        <v>0.64589684714706774</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8857210650219054</v>
+        <v>0.46114712866970398</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="11"/>
@@ -9077,15 +9077,15 @@
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="12"/>
-        <v>5.8678342867195588E-2</v>
+        <v>1.0093773769068588</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4227154987221968</v>
+        <v>0.1206795519572037</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8678342867195588E-2</v>
+        <v>1.0093773769068588</v>
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="11"/>
@@ -9098,19 +9098,19 @@
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3780854531985263</v>
+        <v>1.4456267912094019</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="12"/>
-        <v>0.10448785249732123</v>
+        <v>1.4896265705656242</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3780854531985263</v>
+        <v>1.4456267912094019</v>
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -9119,19 +9119,19 @@
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="12"/>
-        <v>0.50370980379283625</v>
+        <v>7.3983135988184845E-3</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45272124829018329</v>
+        <v>1.3576814154710894</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50370980379283625</v>
+        <v>7.3983135988184845E-3</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -9140,19 +9140,19 @@
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="12"/>
-        <v>2.4710958136914318E-2</v>
+        <v>0.25312582229722291</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45168883696658324</v>
+        <v>0.35744624938687236</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="10"/>
-        <v>2.4710958136914318E-2</v>
+        <v>0.25312582229722291</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -9161,15 +9161,15 @@
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="12"/>
-        <v>0.36709283256219877</v>
+        <v>0.83883138997611695</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3958472160693172</v>
+        <v>0.50882585785779022</v>
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36709283256219877</v>
+        <v>0.83883138997611695</v>
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="11"/>
@@ -9182,19 +9182,19 @@
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2439887397413891</v>
+        <v>1.3945277255450286</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22697541744828875</v>
+        <v>0.92399244675998093</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2439887397413891</v>
+        <v>1.3945277255450286</v>
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -9203,15 +9203,15 @@
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="12"/>
-        <v>7.2264272144042796E-2</v>
+        <v>3.4386565284032E-2</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="12"/>
-        <v>0.58489464992615336</v>
+        <v>4.7357413787317837E-2</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2264272144042796E-2</v>
+        <v>3.4386565284032E-2</v>
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="11"/>
@@ -9224,15 +9224,15 @@
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2606955819162227</v>
+        <v>0.15819517649363074</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39836533425941767</v>
+        <v>0.96762024759962662</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2606955819162227</v>
+        <v>0.15819517649363074</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="11"/>
@@ -9245,19 +9245,19 @@
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="12"/>
-        <v>2.2640020563226726E-2</v>
+        <v>0.35031828919152896</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="12"/>
-        <v>0.62827130765482297</v>
+        <v>1.288259506406769</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2640020563226726E-2</v>
+        <v>0.35031828919152896</v>
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -9266,15 +9266,15 @@
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4801194060037235</v>
+        <v>1.0586967486436589</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="12"/>
-        <v>0.37231199386352765</v>
+        <v>1.2785244909147231</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="10"/>
-        <v>1.4801194060037235</v>
+        <v>1.0586967486436589</v>
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="11"/>
@@ -9287,19 +9287,19 @@
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1918690245960883</v>
+        <v>3.1488738926297666E-2</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22829496591462678</v>
+        <v>0.89612432188586699</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1918690245960883</v>
+        <v>3.1488738926297666E-2</v>
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -9308,19 +9308,19 @@
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2110302209746928</v>
+        <v>6.1414193619995894E-2</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="12"/>
-        <v>0.65585490272513625</v>
+        <v>7.5655247870529629E-2</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2110302209746928</v>
+        <v>6.1414193619995894E-2</v>
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -9329,19 +9329,19 @@
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="12"/>
-        <v>9.2572075383885011E-2</v>
+        <v>0.95090709636504145</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="12"/>
-        <v>1.3227564890766681</v>
+        <v>1.2329114920817448</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="10"/>
-        <v>9.2572075383885011E-2</v>
+        <v>0.95090709636504145</v>
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -9350,15 +9350,15 @@
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41902652388837214</v>
+        <v>1.4783846265439453</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0472174115986899</v>
+        <v>0.51001113043540547</v>
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="10"/>
-        <v>0.41902652388837214</v>
+        <v>1.4783846265439453</v>
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="11"/>
@@ -9371,19 +9371,19 @@
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32150585564715739</v>
+        <v>0.3421211747527107</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2833039973497835</v>
+        <v>0.43955052868237626</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32150585564715739</v>
+        <v>0.3421211747527107</v>
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -9392,15 +9392,15 @@
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="12"/>
-        <v>0.91200694719191555</v>
+        <v>0.57151200497872168</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17560937113548891</v>
+        <v>0.69873885136048908</v>
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="10"/>
-        <v>0.91200694719191555</v>
+        <v>0.57151200497872168</v>
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="11"/>
@@ -9413,19 +9413,19 @@
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15119946633427755</v>
+        <v>2.6472486898583281E-2</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="12"/>
-        <v>0.10453090921055502</v>
+        <v>1.1501350852913896</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15119946633427755</v>
+        <v>2.6472486898583281E-2</v>
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -9434,19 +9434,19 @@
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="12"/>
-        <v>0.50443161098750089</v>
+        <v>0.22931363819413708</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="12"/>
-        <v>0.85436597655810531</v>
+        <v>0.72696540151211875</v>
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50443161098750089</v>
+        <v>0.22931363819413708</v>
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -9455,15 +9455,15 @@
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="12"/>
-        <v>0.33180172696372379</v>
+        <v>1.0127557639975548</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="12"/>
-        <v>0.88921200663041211</v>
+        <v>0.82804776619158182</v>
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33180172696372379</v>
+        <v>1.0127557639975548</v>
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="11"/>
@@ -9476,19 +9476,19 @@
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="12"/>
-        <v>0.74901860925446928</v>
+        <v>0.10309504086613558</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="12"/>
-        <v>0.98276749916285655</v>
+        <v>1.4313641554224514</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="10"/>
-        <v>0.74901860925446928</v>
+        <v>0.10309504086613558</v>
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -9497,15 +9497,15 @@
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="12"/>
-        <v>1.2811808221211565</v>
+        <v>1.3792331406962406</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="12"/>
-        <v>0.10151491975086541</v>
+        <v>1.2399867175836423</v>
       </c>
       <c r="D150">
         <f t="shared" ref="D150:D170" ca="1" si="13">B150</f>
-        <v>1.2811808221211565</v>
+        <v>1.3792331406962406</v>
       </c>
       <c r="E150">
         <f t="shared" ref="E150:E170" ca="1" si="14">IF(D149&gt;=C149,1,0)</f>
@@ -9518,15 +9518,15 @@
       </c>
       <c r="B151">
         <f t="shared" ref="B151:C171" ca="1" si="15">RAND()*(1.5-0)+0</f>
-        <v>1.2457002040135789</v>
+        <v>0.38818077248711536</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="15"/>
-        <v>1.4347487666162471</v>
+        <v>0.46138972569813352</v>
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2457002040135789</v>
+        <v>0.38818077248711536</v>
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="14"/>
@@ -9539,15 +9539,15 @@
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1792598309618429</v>
+        <v>1.0939473730562272</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1573864724527538</v>
+        <v>1.1430001649000348</v>
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1792598309618429</v>
+        <v>1.0939473730562272</v>
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="14"/>
@@ -9560,19 +9560,19 @@
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9341015498950656E-2</v>
+        <v>1.2789867768996133</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1690188534058334</v>
+        <v>0.91056124147982853</v>
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="13"/>
-        <v>5.9341015498950656E-2</v>
+        <v>1.2789867768996133</v>
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -9581,19 +9581,19 @@
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="15"/>
-        <v>0.92548907530791669</v>
+        <v>0.8266422893005847</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35402866738439681</v>
+        <v>1.4198080721791304</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="13"/>
-        <v>0.92548907530791669</v>
+        <v>0.8266422893005847</v>
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -9602,19 +9602,19 @@
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="15"/>
-        <v>1.7525855666147006E-2</v>
+        <v>3.2246440478832461E-2</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="15"/>
-        <v>0.62239179023379387</v>
+        <v>0.18154804474745495</v>
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7525855666147006E-2</v>
+        <v>3.2246440478832461E-2</v>
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -9623,15 +9623,15 @@
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="15"/>
-        <v>1.0516323501182159</v>
+        <v>0.86861713360362347</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="15"/>
-        <v>1.3928331924986688</v>
+        <v>0.12040026305480833</v>
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0516323501182159</v>
+        <v>0.86861713360362347</v>
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="14"/>
@@ -9644,19 +9644,19 @@
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="15"/>
-        <v>0.61820835380312755</v>
+        <v>1.3895913302910909</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43612692344211335</v>
+        <v>0.63533907539258794</v>
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="13"/>
-        <v>0.61820835380312755</v>
+        <v>1.3895913302910909</v>
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -9665,15 +9665,15 @@
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="15"/>
-        <v>0.2274104736285637</v>
+        <v>0.35164438896065592</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="15"/>
-        <v>0.8252238426266737</v>
+        <v>0.6053858899373008</v>
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="13"/>
-        <v>0.2274104736285637</v>
+        <v>0.35164438896065592</v>
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="14"/>
@@ -9686,15 +9686,15 @@
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47629454929025161</v>
+        <v>4.9430977893774708E-2</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="15"/>
-        <v>0.28542634184063281</v>
+        <v>0.17395145607974444</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47629454929025161</v>
+        <v>4.9430977893774708E-2</v>
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="14"/>
@@ -9707,19 +9707,19 @@
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="15"/>
-        <v>0.24934937650004418</v>
+        <v>1.086657242155189</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="15"/>
-        <v>0.73368524000821411</v>
+        <v>0.48346929637473995</v>
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="13"/>
-        <v>0.24934937650004418</v>
+        <v>1.086657242155189</v>
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -9728,19 +9728,19 @@
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="15"/>
-        <v>4.9201332609539628E-2</v>
+        <v>1.3361024888311299</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35979604367368079</v>
+        <v>0.70063990015228295</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9201332609539628E-2</v>
+        <v>1.3361024888311299</v>
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -9749,19 +9749,19 @@
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="15"/>
-        <v>0.98107456238122204</v>
+        <v>1.1032781728367733</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="15"/>
-        <v>0.46351504821734496</v>
+        <v>1.0971264695673772</v>
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="13"/>
-        <v>0.98107456238122204</v>
+        <v>1.1032781728367733</v>
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -9770,15 +9770,15 @@
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="15"/>
-        <v>1.460187022460518</v>
+        <v>1.2662683836386674</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="15"/>
-        <v>0.17865969657702996</v>
+        <v>1.3033732803629978</v>
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="13"/>
-        <v>1.460187022460518</v>
+        <v>1.2662683836386674</v>
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="14"/>
@@ -9791,19 +9791,19 @@
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="15"/>
-        <v>0.99380541465237071</v>
+        <v>4.540836911187035E-2</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="15"/>
-        <v>1.05012924399929</v>
+        <v>0.37242452883350197</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="13"/>
-        <v>0.99380541465237071</v>
+        <v>4.540836911187035E-2</v>
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -9812,15 +9812,15 @@
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="15"/>
-        <v>0.89007448343082096</v>
+        <v>1.0934982951374237</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="15"/>
-        <v>9.0134155938926763E-2</v>
+        <v>0.14461621722701451</v>
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="13"/>
-        <v>0.89007448343082096</v>
+        <v>1.0934982951374237</v>
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="14"/>
@@ -9833,15 +9833,15 @@
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43106172004842824</v>
+        <v>1.3175141699105413</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="15"/>
-        <v>0.83447854700045954</v>
+        <v>0.18365458909447918</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43106172004842824</v>
+        <v>1.3175141699105413</v>
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="14"/>
@@ -9854,19 +9854,19 @@
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41718072611541784</v>
+        <v>1.0884154359925451</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="15"/>
-        <v>0.25499578614214757</v>
+        <v>0.44913651703753898</v>
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41718072611541784</v>
+        <v>1.0884154359925451</v>
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -9875,15 +9875,15 @@
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="15"/>
-        <v>1.0649265403173169</v>
+        <v>1.1621111472228636</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="15"/>
-        <v>0.9445747385135862</v>
+        <v>1.013408449511302</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="13"/>
-        <v>1.0649265403173169</v>
+        <v>1.1621111472228636</v>
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="14"/>
@@ -9896,15 +9896,15 @@
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="15"/>
-        <v>0.21942418457095136</v>
+        <v>1.3553582768694148</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="15"/>
-        <v>0.97147758750454838</v>
+        <v>3.2412464384221684E-2</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21942418457095136</v>
+        <v>1.3553582768694148</v>
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="14"/>
@@ -9917,19 +9917,19 @@
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="15"/>
-        <v>0.93740719743939782</v>
+        <v>0.11371778980557962</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="15"/>
-        <v>0.39867489957161761</v>
+        <v>0.49352265393648065</v>
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="13"/>
-        <v>0.93740719743939782</v>
+        <v>0.11371778980557962</v>
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -9938,25 +9938,25 @@
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="15"/>
-        <v>1.1887336490422147</v>
+        <v>0.91696561458259063</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="15"/>
-        <v>8.0849125150022294E-2</v>
+        <v>0.87873745873915865</v>
       </c>
       <c r="D171">
         <f t="shared" ref="D171" ca="1" si="16">B171</f>
-        <v>1.1887336490422147</v>
+        <v>0.91696561458259063</v>
       </c>
       <c r="E171">
         <f t="shared" ref="E171" ca="1" si="17">IF(D170&gt;=C170,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E173">
         <f ca="1">(SUM(E2:E171)/A171)*(1.5*1.5)</f>
-        <v>1.0323529411764705</v>
+        <v>1.111764705882353</v>
       </c>
       <c r="G173" t="s">
         <v>6</v>
